--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C95DB6-24B1-4A8F-856C-51732F4292CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1049331-2DC3-4861-89EB-E190E6254857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF3D170-DEC1-4938-B961-67DBF048922E}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16910,7 +16910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD318B56-38BD-4E5D-86D7-782D60429334}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1049331-2DC3-4861-89EB-E190E6254857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F87A8-332F-4770-8BEB-092FB6732105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="33780" yWindow="0" windowWidth="20550" windowHeight="16200" activeTab="4" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">designs!$A$1:$G$421</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$F$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">parameters!$A$1:$G$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="256">
   <si>
     <t>Category</t>
   </si>
@@ -809,6 +809,12 @@
   </si>
   <si>
     <t>Component B2 Low Funding</t>
+  </si>
+  <si>
+    <t>It's important that all Metrics be calculable for all Technologies evaluated within a decision context, as Metrics are a key part of evaluating and comparing R&amp;D investments.</t>
+  </si>
+  <si>
+    <t>Overall Efficiency</t>
   </si>
 </sst>
 </file>
@@ -1160,17 +1166,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF3D170-DEC1-4938-B961-67DBF048922E}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -1367,22 +1373,22 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="F12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,13 +1399,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,24 +1416,27 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,10 +1475,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,13 +1500,13 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,10 +1517,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,10 +1531,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,13 +1542,13 @@
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,10 +1559,10 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,13 +1584,13 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1598,13 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,17 +1615,45 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F29">
-    <sortCondition ref="A4:A29"/>
-    <sortCondition ref="B4:B29"/>
-    <sortCondition ref="D4:D29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F31">
+    <sortCondition ref="A4:A31"/>
+    <sortCondition ref="B4:B31"/>
+    <sortCondition ref="D4:D31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16233,16 +16270,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08421A62-7A7F-4754-940E-DE21752714F2}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16378,16 +16415,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16395,13 +16432,13 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16412,7 +16449,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>132</v>
@@ -16426,7 +16463,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>132</v>
@@ -16437,13 +16474,13 @@
         <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16454,10 +16491,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16468,10 +16505,38 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F87A8-332F-4770-8BEB-092FB6732105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204CCBF-67E9-4FB9-BAA1-AC14BC4A3A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="0" windowWidth="20550" windowHeight="16200" activeTab="4" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="33780" yWindow="2040" windowWidth="20550" windowHeight="11715" activeTab="2" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="258">
   <si>
     <t>Category</t>
   </si>
@@ -610,9 +610,6 @@
     <t>st.triang(c=0.65, loc=0.538904, scale=0.236592)</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.3792, scale=0.2016)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.55, loc=0.397536, scale=0.174528)</t>
   </si>
   <si>
@@ -815,6 +812,15 @@
   </si>
   <si>
     <t>Overall Efficiency</t>
+  </si>
+  <si>
+    <t>Data in this dataset and in the parameters dataset may be specified as point estimates, distributions as shown here, or mixtures of distributions (See Output G for Technology A, Current State).</t>
+  </si>
+  <si>
+    <t>mixture(st.triang(c=0.5, loc=0.3792, scale=0.2016), st.triang(c=0.5, loc=0.42, scale=0.19))</t>
+  </si>
+  <si>
+    <t>Allowable distributions and their parameters are listed on the scipy.stats page: https://docs.scipy.org/doc/scipy/reference/stats.html</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1227,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1374,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1447,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1461,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1475,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1601,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1766,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB20890-62B7-47AF-BA68-650F053D99C5}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1815,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1829,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1849,7 +1855,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1864,7 +1870,7 @@
         <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1881,10 +1887,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1901,10 +1910,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,7 +1924,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1926,13 +1938,16 @@
       <c r="F7" t="s">
         <v>47</v>
       </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1946,13 +1961,16 @@
       <c r="F8" t="s">
         <v>140</v>
       </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1972,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1992,13 +2010,13 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -2006,19 +2024,22 @@
       <c r="F11" t="s">
         <v>49</v>
       </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -2032,13 +2053,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -2052,7 +2073,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2072,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2092,7 +2113,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -2101,10 +2122,13 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2112,7 +2136,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2121,7 +2145,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -2132,7 +2156,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -2141,10 +2165,13 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,7 +2179,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -2166,13 +2193,16 @@
       <c r="F19" t="s">
         <v>48</v>
       </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -2192,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -2212,7 +2242,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2223,13 +2253,16 @@
       <c r="F22" t="s">
         <v>47</v>
       </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -2243,16 +2276,13 @@
       <c r="F23" t="s">
         <v>90</v>
       </c>
-      <c r="G23" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -2272,7 +2302,7 @@
         <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -2292,7 +2322,7 @@
         <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -2312,7 +2342,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -2321,10 +2351,13 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,7 +2365,7 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -2341,7 +2374,7 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -2352,7 +2385,7 @@
         <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2372,7 +2405,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -2392,7 +2425,7 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -2412,13 +2445,13 @@
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -2427,18 +2460,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2447,18 +2480,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -2467,12 +2500,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -2487,12 +2520,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -2507,12 +2540,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
@@ -2521,18 +2554,18 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -2541,18 +2574,18 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
@@ -2561,18 +2594,18 @@
         <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -2587,12 +2620,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -2607,12 +2640,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -2627,12 +2660,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
@@ -2644,12 +2677,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2663,13 +2696,16 @@
       <c r="F44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2683,13 +2719,16 @@
       <c r="F45" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -2703,13 +2742,16 @@
       <c r="F46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -2718,18 +2760,21 @@
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -2738,18 +2783,18 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -2763,13 +2808,16 @@
       <c r="F49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -2784,12 +2832,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -2804,12 +2852,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
@@ -2824,18 +2872,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2844,18 +2892,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -2864,18 +2912,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -2884,12 +2932,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
@@ -2904,12 +2952,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -2924,12 +2972,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -2938,18 +2986,18 @@
         <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
@@ -2958,18 +3006,18 @@
         <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -2984,12 +3032,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -3004,12 +3052,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -3024,12 +3072,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -3044,12 +3092,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
@@ -3061,12 +3109,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -3080,13 +3128,16 @@
       <c r="F65" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -3101,12 +3152,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -3121,12 +3172,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -3141,12 +3192,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -3155,18 +3206,18 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -3175,18 +3226,18 @@
         <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
@@ -3201,12 +3252,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
@@ -3221,12 +3272,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -3241,18 +3292,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -3261,18 +3312,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -3281,18 +3332,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76">
         <v>20</v>
@@ -3301,12 +3352,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
@@ -3321,12 +3372,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -3341,12 +3392,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
@@ -3361,12 +3412,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
@@ -3381,12 +3432,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -3401,12 +3452,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -3421,12 +3472,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -3441,12 +3492,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -3461,12 +3512,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
         <v>33</v>
@@ -3478,12 +3529,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -3497,16 +3548,13 @@
       <c r="F86" t="s">
         <v>90</v>
       </c>
-      <c r="G86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -3520,16 +3568,13 @@
       <c r="F87" t="s">
         <v>138</v>
       </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -3544,12 +3589,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -3558,18 +3603,18 @@
         <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -3578,18 +3623,18 @@
         <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -3604,12 +3649,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
@@ -3624,12 +3669,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
         <v>34</v>
@@ -3644,12 +3689,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -3664,18 +3709,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -3684,18 +3729,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -3709,13 +3754,13 @@
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -3729,7 +3774,7 @@
         <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -3749,7 +3794,7 @@
         <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
@@ -3769,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
@@ -3778,7 +3823,7 @@
         <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
@@ -3789,7 +3834,7 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
         <v>32</v>
@@ -3798,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
@@ -3809,7 +3854,7 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
@@ -3829,7 +3874,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -3849,7 +3894,7 @@
         <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
         <v>35</v>
@@ -3869,7 +3914,7 @@
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -3889,7 +3934,7 @@
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
@@ -3906,7 +3951,7 @@
         <v>91</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -3926,7 +3971,7 @@
         <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3946,7 +3991,7 @@
         <v>91</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3966,7 +4011,7 @@
         <v>91</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -3986,7 +4031,7 @@
         <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -3995,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F111" t="s">
         <v>47</v>
@@ -4006,7 +4051,7 @@
         <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
         <v>31</v>
@@ -4015,18 +4060,18 @@
         <v>93</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
@@ -4041,12 +4086,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
@@ -4061,12 +4106,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -4081,18 +4126,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E116">
         <v>20</v>
@@ -4101,18 +4146,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
         <v>36</v>
       </c>
       <c r="D117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -4121,18 +4166,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
         <v>36</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E118">
         <v>20</v>
@@ -4141,12 +4186,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -4161,12 +4206,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -4181,12 +4226,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>91</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
         <v>32</v>
@@ -4201,12 +4246,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>32</v>
@@ -4221,12 +4266,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
         <v>32</v>
@@ -4241,12 +4286,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
@@ -4261,12 +4306,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>91</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>35</v>
@@ -4281,12 +4326,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>91</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
         <v>35</v>
@@ -4301,12 +4346,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>91</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
         <v>33</v>
@@ -4318,12 +4363,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>37</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -4337,16 +4382,13 @@
       <c r="F128" t="s">
         <v>90</v>
       </c>
-      <c r="G128" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -4360,16 +4402,13 @@
       <c r="F129" t="s">
         <v>138</v>
       </c>
-      <c r="G129" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>37</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -4383,16 +4422,13 @@
       <c r="F130" t="s">
         <v>90</v>
       </c>
-      <c r="G130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -4401,21 +4437,18 @@
         <v>39</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F131" t="s">
         <v>47</v>
       </c>
-      <c r="G131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -4424,18 +4457,18 @@
         <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F132" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>37</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
@@ -4450,12 +4483,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -4469,16 +4502,13 @@
       <c r="F134" t="s">
         <v>140</v>
       </c>
-      <c r="G134" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
         <v>34</v>
@@ -4493,12 +4523,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
         <v>34</v>
@@ -4513,18 +4543,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
         <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -4532,22 +4562,19 @@
       <c r="F137" t="s">
         <v>49</v>
       </c>
-      <c r="G137" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C138" t="s">
         <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E138">
         <v>20</v>
@@ -4556,18 +4583,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
         <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -4576,12 +4603,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C140" t="s">
         <v>36</v>
@@ -4596,12 +4623,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -4616,12 +4643,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>37</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C142" t="s">
         <v>32</v>
@@ -4630,21 +4657,18 @@
         <v>43</v>
       </c>
       <c r="E142" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F142" t="s">
         <v>47</v>
       </c>
-      <c r="G142" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>37</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C143" t="s">
         <v>32</v>
@@ -4653,18 +4677,18 @@
         <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F143" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C144" t="s">
         <v>32</v>
@@ -4678,16 +4702,13 @@
       <c r="F144" t="s">
         <v>47</v>
       </c>
-      <c r="G144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
@@ -4701,16 +4722,13 @@
       <c r="F145" t="s">
         <v>48</v>
       </c>
-      <c r="G145" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
         <v>35</v>
@@ -4725,12 +4743,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -4745,12 +4763,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>37</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
         <v>33</v>
@@ -4761,16 +4779,13 @@
       <c r="F148" t="s">
         <v>47</v>
       </c>
-      <c r="G148" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>91</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -4785,12 +4800,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>91</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -4805,12 +4820,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>91</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -4825,12 +4840,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
         <v>31</v>
@@ -4845,12 +4860,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
         <v>31</v>
@@ -4859,21 +4874,18 @@
         <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F153" t="s">
         <v>47</v>
       </c>
-      <c r="G153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>91</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
         <v>31</v>
@@ -4882,18 +4894,18 @@
         <v>93</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F154" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>91</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
@@ -4908,12 +4920,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>91</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
@@ -4928,12 +4940,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
@@ -4948,18 +4960,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>91</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C158" t="s">
         <v>36</v>
       </c>
       <c r="D158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E158">
         <v>20</v>
@@ -4968,18 +4980,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>91</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C159" t="s">
         <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E159">
         <v>20</v>
@@ -4988,18 +5000,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>91</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
       </c>
       <c r="D160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E160">
         <v>20</v>
@@ -5013,7 +5025,7 @@
         <v>91</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
@@ -5033,7 +5045,7 @@
         <v>91</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -5053,7 +5065,7 @@
         <v>91</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C163" t="s">
         <v>32</v>
@@ -5073,7 +5085,7 @@
         <v>91</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C164" t="s">
         <v>32</v>
@@ -5093,7 +5105,7 @@
         <v>91</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C165" t="s">
         <v>32</v>
@@ -5113,7 +5125,7 @@
         <v>91</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C166" t="s">
         <v>35</v>
@@ -5133,7 +5145,7 @@
         <v>91</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C167" t="s">
         <v>35</v>
@@ -5153,7 +5165,7 @@
         <v>91</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C168" t="s">
         <v>35</v>
@@ -5173,7 +5185,7 @@
         <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C169" t="s">
         <v>33</v>
@@ -5376,7 +5388,7 @@
         <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E179">
         <v>20</v>
@@ -5396,7 +5408,7 @@
         <v>36</v>
       </c>
       <c r="D180" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E180">
         <v>20</v>
@@ -5416,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="D181" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E181">
         <v>20</v>
@@ -5519,7 +5531,7 @@
         <v>94</v>
       </c>
       <c r="E186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F186" t="s">
         <v>47</v>
@@ -5793,7 +5805,7 @@
         <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -5813,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="D201" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E201">
         <v>20</v>
@@ -5833,7 +5845,7 @@
         <v>36</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E202">
         <v>20</v>
@@ -5896,7 +5908,7 @@
         <v>43</v>
       </c>
       <c r="E205" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F205" t="s">
         <v>47</v>
@@ -5916,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="E206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F206" t="s">
         <v>47</v>
@@ -5936,7 +5948,7 @@
         <v>94</v>
       </c>
       <c r="E207" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F207" t="s">
         <v>47</v>
@@ -6210,7 +6222,7 @@
         <v>36</v>
       </c>
       <c r="D221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E221">
         <v>20</v>
@@ -6230,7 +6242,7 @@
         <v>36</v>
       </c>
       <c r="D222" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E222">
         <v>20</v>
@@ -6250,7 +6262,7 @@
         <v>36</v>
       </c>
       <c r="D223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E223">
         <v>20</v>
@@ -6353,7 +6365,7 @@
         <v>94</v>
       </c>
       <c r="E228" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F228" t="s">
         <v>47</v>
@@ -6627,7 +6639,7 @@
         <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E242">
         <v>20</v>
@@ -6647,7 +6659,7 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E243">
         <v>20</v>
@@ -6667,7 +6679,7 @@
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E244">
         <v>20</v>
@@ -6730,7 +6742,7 @@
         <v>43</v>
       </c>
       <c r="E247" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F247" t="s">
         <v>47</v>
@@ -6750,7 +6762,7 @@
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F248" t="s">
         <v>47</v>
@@ -6770,7 +6782,7 @@
         <v>94</v>
       </c>
       <c r="E249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F249" t="s">
         <v>47</v>
@@ -7044,7 +7056,7 @@
         <v>36</v>
       </c>
       <c r="D263" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E263">
         <v>20</v>
@@ -7064,7 +7076,7 @@
         <v>36</v>
       </c>
       <c r="D264" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E264">
         <v>20</v>
@@ -7084,7 +7096,7 @@
         <v>36</v>
       </c>
       <c r="D265" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E265">
         <v>20</v>
@@ -7187,7 +7199,7 @@
         <v>94</v>
       </c>
       <c r="E270" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F270" t="s">
         <v>47</v>
@@ -7461,7 +7473,7 @@
         <v>36</v>
       </c>
       <c r="D284" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E284">
         <v>20</v>
@@ -7481,7 +7493,7 @@
         <v>36</v>
       </c>
       <c r="D285" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E285">
         <v>20</v>
@@ -7501,7 +7513,7 @@
         <v>36</v>
       </c>
       <c r="D286" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E286">
         <v>20</v>
@@ -7564,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="E289" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F289" t="s">
         <v>47</v>
@@ -7584,7 +7596,7 @@
         <v>44</v>
       </c>
       <c r="E290" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F290" t="s">
         <v>47</v>
@@ -7604,7 +7616,7 @@
         <v>94</v>
       </c>
       <c r="E291" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F291" t="s">
         <v>47</v>
@@ -7878,7 +7890,7 @@
         <v>36</v>
       </c>
       <c r="D305" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E305">
         <v>20</v>
@@ -7898,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="D306" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E306">
         <v>20</v>
@@ -7918,7 +7930,7 @@
         <v>36</v>
       </c>
       <c r="D307" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E307">
         <v>20</v>
@@ -8021,7 +8033,7 @@
         <v>94</v>
       </c>
       <c r="E312" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F312" t="s">
         <v>47</v>
@@ -8295,7 +8307,7 @@
         <v>36</v>
       </c>
       <c r="D326" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E326">
         <v>20</v>
@@ -8315,7 +8327,7 @@
         <v>36</v>
       </c>
       <c r="D327" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E327">
         <v>20</v>
@@ -8335,7 +8347,7 @@
         <v>36</v>
       </c>
       <c r="D328" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E328">
         <v>20</v>
@@ -8398,7 +8410,7 @@
         <v>43</v>
       </c>
       <c r="E331" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F331" t="s">
         <v>47</v>
@@ -8418,7 +8430,7 @@
         <v>44</v>
       </c>
       <c r="E332" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F332" t="s">
         <v>47</v>
@@ -8438,7 +8450,7 @@
         <v>94</v>
       </c>
       <c r="E333" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F333" t="s">
         <v>47</v>
@@ -8712,7 +8724,7 @@
         <v>36</v>
       </c>
       <c r="D347" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E347">
         <v>20</v>
@@ -8732,7 +8744,7 @@
         <v>36</v>
       </c>
       <c r="D348" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E348">
         <v>20</v>
@@ -8752,7 +8764,7 @@
         <v>36</v>
       </c>
       <c r="D349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E349">
         <v>20</v>
@@ -8855,7 +8867,7 @@
         <v>94</v>
       </c>
       <c r="E354" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F354" t="s">
         <v>47</v>
@@ -9129,7 +9141,7 @@
         <v>36</v>
       </c>
       <c r="D368" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E368">
         <v>20</v>
@@ -9149,7 +9161,7 @@
         <v>36</v>
       </c>
       <c r="D369" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E369">
         <v>20</v>
@@ -9169,7 +9181,7 @@
         <v>36</v>
       </c>
       <c r="D370" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E370">
         <v>20</v>
@@ -9232,7 +9244,7 @@
         <v>43</v>
       </c>
       <c r="E373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F373" t="s">
         <v>47</v>
@@ -9252,7 +9264,7 @@
         <v>44</v>
       </c>
       <c r="E374" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F374" t="s">
         <v>47</v>
@@ -9272,7 +9284,7 @@
         <v>94</v>
       </c>
       <c r="E375" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F375" t="s">
         <v>47</v>
@@ -9546,7 +9558,7 @@
         <v>36</v>
       </c>
       <c r="D389" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E389">
         <v>20</v>
@@ -9566,7 +9578,7 @@
         <v>36</v>
       </c>
       <c r="D390" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E390">
         <v>20</v>
@@ -9586,7 +9598,7 @@
         <v>36</v>
       </c>
       <c r="D391" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E391">
         <v>20</v>
@@ -9689,7 +9701,7 @@
         <v>94</v>
       </c>
       <c r="E396" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F396" t="s">
         <v>47</v>
@@ -9963,7 +9975,7 @@
         <v>36</v>
       </c>
       <c r="D410" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E410">
         <v>20</v>
@@ -9983,7 +9995,7 @@
         <v>36</v>
       </c>
       <c r="D411" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E411">
         <v>20</v>
@@ -10003,7 +10015,7 @@
         <v>36</v>
       </c>
       <c r="D412" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E412">
         <v>20</v>
@@ -10066,7 +10078,7 @@
         <v>43</v>
       </c>
       <c r="E415" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F415" t="s">
         <v>47</v>
@@ -10086,7 +10098,7 @@
         <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F416" t="s">
         <v>47</v>
@@ -10106,7 +10118,7 @@
         <v>94</v>
       </c>
       <c r="E417" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F417" t="s">
         <v>47</v>
@@ -10248,7 +10260,7 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10268,7 +10280,7 @@
         <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10288,7 +10300,7 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -10417,7 +10429,7 @@
         <v>1.8</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10437,7 +10449,7 @@
         <v>0.23</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10448,7 +10460,7 @@
         <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -10468,7 +10480,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -10488,7 +10500,7 @@
         <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -10508,7 +10520,7 @@
         <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -10528,7 +10540,7 @@
         <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -10548,7 +10560,7 @@
         <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -10568,7 +10580,7 @@
         <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10588,7 +10600,7 @@
         <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -10717,7 +10729,7 @@
         <v>1.8</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,7 +10749,7 @@
         <v>0.23</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10748,7 +10760,7 @@
         <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -10768,7 +10780,7 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -10788,7 +10800,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -10808,7 +10820,7 @@
         <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30">
         <v>13</v>
@@ -10828,7 +10840,7 @@
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -10848,7 +10860,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -10868,7 +10880,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -10888,7 +10900,7 @@
         <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -11017,7 +11029,7 @@
         <v>1.8</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -11037,7 +11049,7 @@
         <v>0.23</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -11048,7 +11060,7 @@
         <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -11068,7 +11080,7 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43">
         <v>11</v>
@@ -11088,7 +11100,7 @@
         <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -11108,7 +11120,7 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -11128,7 +11140,7 @@
         <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -11148,7 +11160,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -11171,7 +11183,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -11191,7 +11203,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -11329,7 +11341,7 @@
         <v>1.8</v>
       </c>
       <c r="F55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11349,7 +11361,7 @@
         <v>0.23</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11360,7 +11372,7 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -11380,7 +11392,7 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -11400,7 +11412,7 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -11420,7 +11432,7 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60">
         <v>13</v>
@@ -11440,7 +11452,7 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61">
         <v>14</v>
@@ -11460,7 +11472,7 @@
         <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -11480,7 +11492,7 @@
         <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -11500,7 +11512,7 @@
         <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -11629,7 +11641,7 @@
         <v>1.8</v>
       </c>
       <c r="F70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -11649,7 +11661,7 @@
         <v>0.23</v>
       </c>
       <c r="F71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11660,7 +11672,7 @@
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D72">
         <v>10</v>
@@ -11680,7 +11692,7 @@
         <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -11700,7 +11712,7 @@
         <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74">
         <v>12</v>
@@ -11720,7 +11732,7 @@
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75">
         <v>13</v>
@@ -11740,7 +11752,7 @@
         <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76">
         <v>14</v>
@@ -11760,7 +11772,7 @@
         <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -11780,7 +11792,7 @@
         <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -11800,7 +11812,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -11929,7 +11941,7 @@
         <v>1.8</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -11949,7 +11961,7 @@
         <v>0.23</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -11960,7 +11972,7 @@
         <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87">
         <v>10</v>
@@ -11980,7 +11992,7 @@
         <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D88">
         <v>11</v>
@@ -12000,7 +12012,7 @@
         <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -12020,7 +12032,7 @@
         <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D90">
         <v>13</v>
@@ -12040,7 +12052,7 @@
         <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D91">
         <v>14</v>
@@ -12060,7 +12072,7 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12080,7 +12092,7 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -12100,7 +12112,7 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -12229,7 +12241,7 @@
         <v>1.8</v>
       </c>
       <c r="F100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -12249,7 +12261,7 @@
         <v>0.23</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -12260,7 +12272,7 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D102">
         <v>10</v>
@@ -12280,7 +12292,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -12300,7 +12312,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D104">
         <v>12</v>
@@ -12320,7 +12332,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105">
         <v>13</v>
@@ -12340,7 +12352,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D106">
         <v>14</v>
@@ -12360,7 +12372,7 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -12380,7 +12392,7 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -12400,7 +12412,7 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -12529,7 +12541,7 @@
         <v>1.8</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -12549,7 +12561,7 @@
         <v>0.23</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -12560,7 +12572,7 @@
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -12580,7 +12592,7 @@
         <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D118">
         <v>11</v>
@@ -12600,7 +12612,7 @@
         <v>112</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D119">
         <v>12</v>
@@ -12620,7 +12632,7 @@
         <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D120">
         <v>13</v>
@@ -12640,7 +12652,7 @@
         <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D121">
         <v>14</v>
@@ -12660,7 +12672,7 @@
         <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -12680,7 +12692,7 @@
         <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -12700,7 +12712,7 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -12829,7 +12841,7 @@
         <v>1.8</v>
       </c>
       <c r="F130" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -12849,7 +12861,7 @@
         <v>0.23</v>
       </c>
       <c r="F131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -12860,7 +12872,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D132">
         <v>10</v>
@@ -12880,7 +12892,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D133">
         <v>11</v>
@@ -12900,7 +12912,7 @@
         <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D134">
         <v>12</v>
@@ -12920,7 +12932,7 @@
         <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D135">
         <v>13</v>
@@ -12940,7 +12952,7 @@
         <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D136">
         <v>14</v>
@@ -12960,7 +12972,7 @@
         <v>111</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -12980,7 +12992,7 @@
         <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -13000,7 +13012,7 @@
         <v>111</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -13129,7 +13141,7 @@
         <v>1.8</v>
       </c>
       <c r="F145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -13149,7 +13161,7 @@
         <v>0.23</v>
       </c>
       <c r="F146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -13160,7 +13172,7 @@
         <v>111</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147">
         <v>10</v>
@@ -13180,7 +13192,7 @@
         <v>111</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D148">
         <v>11</v>
@@ -13200,7 +13212,7 @@
         <v>111</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -13220,7 +13232,7 @@
         <v>111</v>
       </c>
       <c r="C150" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D150">
         <v>13</v>
@@ -13240,7 +13252,7 @@
         <v>111</v>
       </c>
       <c r="C151" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D151">
         <v>14</v>
@@ -13260,7 +13272,7 @@
         <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -13272,7 +13284,7 @@
         <v>164</v>
       </c>
       <c r="G152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -13283,7 +13295,7 @@
         <v>129</v>
       </c>
       <c r="C153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -13303,7 +13315,7 @@
         <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -13432,7 +13444,7 @@
         <v>1.8</v>
       </c>
       <c r="F160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -13452,7 +13464,7 @@
         <v>0.23</v>
       </c>
       <c r="F161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -13463,7 +13475,7 @@
         <v>129</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D162">
         <v>10</v>
@@ -13475,7 +13487,7 @@
         <v>47</v>
       </c>
       <c r="G162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -13486,7 +13498,7 @@
         <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D163">
         <v>11</v>
@@ -13506,7 +13518,7 @@
         <v>129</v>
       </c>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D164">
         <v>12</v>
@@ -13526,7 +13538,7 @@
         <v>129</v>
       </c>
       <c r="C165" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D165">
         <v>13</v>
@@ -13546,7 +13558,7 @@
         <v>129</v>
       </c>
       <c r="C166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D166">
         <v>14</v>
@@ -13566,7 +13578,7 @@
         <v>128</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -13586,7 +13598,7 @@
         <v>128</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -13606,7 +13618,7 @@
         <v>128</v>
       </c>
       <c r="C169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -13735,7 +13747,7 @@
         <v>1.8</v>
       </c>
       <c r="F175" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -13755,7 +13767,7 @@
         <v>0.23</v>
       </c>
       <c r="F176" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -13766,7 +13778,7 @@
         <v>128</v>
       </c>
       <c r="C177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D177">
         <v>10</v>
@@ -13786,7 +13798,7 @@
         <v>128</v>
       </c>
       <c r="C178" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D178">
         <v>11</v>
@@ -13806,7 +13818,7 @@
         <v>128</v>
       </c>
       <c r="C179" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D179">
         <v>12</v>
@@ -13826,7 +13838,7 @@
         <v>128</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180">
         <v>13</v>
@@ -13846,7 +13858,7 @@
         <v>128</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D181">
         <v>14</v>
@@ -13866,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -13886,7 +13898,7 @@
         <v>127</v>
       </c>
       <c r="C183" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -13906,7 +13918,7 @@
         <v>127</v>
       </c>
       <c r="C184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -14035,7 +14047,7 @@
         <v>1.8</v>
       </c>
       <c r="F190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -14055,7 +14067,7 @@
         <v>0.23</v>
       </c>
       <c r="F191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -14066,7 +14078,7 @@
         <v>127</v>
       </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D192">
         <v>10</v>
@@ -14086,7 +14098,7 @@
         <v>127</v>
       </c>
       <c r="C193" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D193">
         <v>11</v>
@@ -14106,7 +14118,7 @@
         <v>127</v>
       </c>
       <c r="C194" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D194">
         <v>12</v>
@@ -14126,7 +14138,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D195">
         <v>13</v>
@@ -14146,7 +14158,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D196">
         <v>14</v>
@@ -14166,7 +14178,7 @@
         <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -14186,7 +14198,7 @@
         <v>45</v>
       </c>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -14206,7 +14218,7 @@
         <v>45</v>
       </c>
       <c r="C199" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -14335,7 +14347,7 @@
         <v>1.8</v>
       </c>
       <c r="F205" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -14355,7 +14367,7 @@
         <v>0.23</v>
       </c>
       <c r="F206" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -14366,7 +14378,7 @@
         <v>45</v>
       </c>
       <c r="C207" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D207">
         <v>10</v>
@@ -14386,7 +14398,7 @@
         <v>45</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D208">
         <v>11</v>
@@ -14406,7 +14418,7 @@
         <v>45</v>
       </c>
       <c r="C209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D209">
         <v>12</v>
@@ -14426,7 +14438,7 @@
         <v>45</v>
       </c>
       <c r="C210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D210">
         <v>13</v>
@@ -14446,7 +14458,7 @@
         <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D211">
         <v>14</v>
@@ -14466,7 +14478,7 @@
         <v>106</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -14486,7 +14498,7 @@
         <v>106</v>
       </c>
       <c r="C213" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14506,7 +14518,7 @@
         <v>106</v>
       </c>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -14635,7 +14647,7 @@
         <v>1.8</v>
       </c>
       <c r="F220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -14655,7 +14667,7 @@
         <v>0.23</v>
       </c>
       <c r="F221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -14666,7 +14678,7 @@
         <v>106</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -14686,7 +14698,7 @@
         <v>106</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D223">
         <v>11</v>
@@ -14706,7 +14718,7 @@
         <v>106</v>
       </c>
       <c r="C224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D224">
         <v>12</v>
@@ -14726,7 +14738,7 @@
         <v>106</v>
       </c>
       <c r="C225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D225">
         <v>13</v>
@@ -14746,7 +14758,7 @@
         <v>106</v>
       </c>
       <c r="C226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D226">
         <v>14</v>
@@ -14766,7 +14778,7 @@
         <v>130</v>
       </c>
       <c r="C227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -14786,7 +14798,7 @@
         <v>130</v>
       </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -14806,7 +14818,7 @@
         <v>130</v>
       </c>
       <c r="C229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -14935,7 +14947,7 @@
         <v>1.8</v>
       </c>
       <c r="F235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -14955,7 +14967,7 @@
         <v>0.23</v>
       </c>
       <c r="F236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -14966,7 +14978,7 @@
         <v>130</v>
       </c>
       <c r="C237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -14986,7 +14998,7 @@
         <v>130</v>
       </c>
       <c r="C238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D238">
         <v>11</v>
@@ -15006,7 +15018,7 @@
         <v>130</v>
       </c>
       <c r="C239" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D239">
         <v>12</v>
@@ -15026,7 +15038,7 @@
         <v>130</v>
       </c>
       <c r="C240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D240">
         <v>13</v>
@@ -15046,7 +15058,7 @@
         <v>130</v>
       </c>
       <c r="C241" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D241">
         <v>14</v>
@@ -15066,7 +15078,7 @@
         <v>105</v>
       </c>
       <c r="C242" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -15086,7 +15098,7 @@
         <v>105</v>
       </c>
       <c r="C243" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -15106,7 +15118,7 @@
         <v>105</v>
       </c>
       <c r="C244" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -15235,7 +15247,7 @@
         <v>1.8</v>
       </c>
       <c r="F250" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -15255,7 +15267,7 @@
         <v>0.23</v>
       </c>
       <c r="F251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -15266,7 +15278,7 @@
         <v>105</v>
       </c>
       <c r="C252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D252">
         <v>10</v>
@@ -15286,7 +15298,7 @@
         <v>105</v>
       </c>
       <c r="C253" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -15306,7 +15318,7 @@
         <v>105</v>
       </c>
       <c r="C254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D254">
         <v>12</v>
@@ -15326,7 +15338,7 @@
         <v>105</v>
       </c>
       <c r="C255" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D255">
         <v>13</v>
@@ -15346,7 +15358,7 @@
         <v>105</v>
       </c>
       <c r="C256" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D256">
         <v>14</v>
@@ -15366,7 +15378,7 @@
         <v>112</v>
       </c>
       <c r="C257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -15386,7 +15398,7 @@
         <v>112</v>
       </c>
       <c r="C258" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -15406,7 +15418,7 @@
         <v>112</v>
       </c>
       <c r="C259" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -15535,7 +15547,7 @@
         <v>1.8</v>
       </c>
       <c r="F265" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -15555,7 +15567,7 @@
         <v>0.23</v>
       </c>
       <c r="F266" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -15566,7 +15578,7 @@
         <v>112</v>
       </c>
       <c r="C267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D267">
         <v>10</v>
@@ -15586,7 +15598,7 @@
         <v>112</v>
       </c>
       <c r="C268" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D268">
         <v>11</v>
@@ -15606,7 +15618,7 @@
         <v>112</v>
       </c>
       <c r="C269" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -15626,7 +15638,7 @@
         <v>112</v>
       </c>
       <c r="C270" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D270">
         <v>13</v>
@@ -15646,7 +15658,7 @@
         <v>112</v>
       </c>
       <c r="C271" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D271">
         <v>14</v>
@@ -15666,7 +15678,7 @@
         <v>131</v>
       </c>
       <c r="C272" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -15686,7 +15698,7 @@
         <v>131</v>
       </c>
       <c r="C273" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -15706,7 +15718,7 @@
         <v>131</v>
       </c>
       <c r="C274" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -15835,7 +15847,7 @@
         <v>1.8</v>
       </c>
       <c r="F280" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -15855,7 +15867,7 @@
         <v>0.23</v>
       </c>
       <c r="F281" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -15866,7 +15878,7 @@
         <v>131</v>
       </c>
       <c r="C282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D282">
         <v>10</v>
@@ -15886,7 +15898,7 @@
         <v>131</v>
       </c>
       <c r="C283" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D283">
         <v>11</v>
@@ -15906,7 +15918,7 @@
         <v>131</v>
       </c>
       <c r="C284" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -15926,7 +15938,7 @@
         <v>131</v>
       </c>
       <c r="C285" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D285">
         <v>13</v>
@@ -15946,7 +15958,7 @@
         <v>131</v>
       </c>
       <c r="C286" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D286">
         <v>14</v>
@@ -15966,7 +15978,7 @@
         <v>111</v>
       </c>
       <c r="C287" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -15986,7 +15998,7 @@
         <v>111</v>
       </c>
       <c r="C288" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -16006,7 +16018,7 @@
         <v>111</v>
       </c>
       <c r="C289" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -16135,7 +16147,7 @@
         <v>1.8</v>
       </c>
       <c r="F295" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -16155,7 +16167,7 @@
         <v>0.23</v>
       </c>
       <c r="F296" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -16166,7 +16178,7 @@
         <v>111</v>
       </c>
       <c r="C297" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D297">
         <v>10</v>
@@ -16186,7 +16198,7 @@
         <v>111</v>
       </c>
       <c r="C298" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D298">
         <v>11</v>
@@ -16206,7 +16218,7 @@
         <v>111</v>
       </c>
       <c r="C299" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D299">
         <v>12</v>
@@ -16226,7 +16238,7 @@
         <v>111</v>
       </c>
       <c r="C300" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -16246,7 +16258,7 @@
         <v>111</v>
       </c>
       <c r="C301" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D301">
         <v>14</v>
@@ -16272,7 +16284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08421A62-7A7F-4754-940E-DE21752714F2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -16421,7 +16433,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -16533,7 +16545,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -16653,10 +16665,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
@@ -16670,10 +16682,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
@@ -16684,10 +16696,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
@@ -16732,10 +16744,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -16746,10 +16758,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -16760,10 +16772,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -16805,10 +16817,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
         <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>245</v>
       </c>
       <c r="C17" t="s">
         <v>129</v>
@@ -16819,10 +16831,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
@@ -16833,10 +16845,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>129</v>
@@ -17006,10 +17018,10 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -17020,10 +17032,10 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -17031,10 +17043,10 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -17089,10 +17101,10 @@
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -17100,10 +17112,10 @@
         <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17111,10 +17123,10 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17166,10 +17178,10 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
         <v>244</v>
-      </c>
-      <c r="C16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -17177,10 +17189,10 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -17188,10 +17200,10 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -17243,10 +17255,10 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -17254,10 +17266,10 @@
         <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -17265,10 +17277,10 @@
         <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -17320,10 +17332,10 @@
         <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -17331,10 +17343,10 @@
         <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -17342,10 +17354,10 @@
         <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -17397,10 +17409,10 @@
         <v>119</v>
       </c>
       <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
         <v>244</v>
-      </c>
-      <c r="C37" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -17408,10 +17420,10 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -17419,10 +17431,10 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231F102-49E2-432E-8637-2EA6A6183345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A4A68-5D7D-4192-A660-8433574084E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1005" windowWidth="22650" windowHeight="12795" activeTab="3" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="29415" yWindow="1035" windowWidth="24660" windowHeight="14040" activeTab="4" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -487,54 +487,6 @@
     <t>If a technology does not produce an output, the output efficiency may be set to 0.</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.7254, scale=0.1092)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.76362, scale=0.18876)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.74919, scale=0.22081)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.754728, scale=0.215272)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.76, scale=0.08)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.8096, scale=0.1408)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.79552, scale=0.17448)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.78352, scale=0.18648)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.8439, scale=0.0522)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.8265, scale=0.087)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.849555, scale=0.120445)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.83781, scale=0.13219)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.825021, scale=0.144979)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.825282, scale=0.124236)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.831285, scale=0.138715)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.820758, scale=0.149242)</t>
-  </si>
-  <si>
     <t>The Values in each design (even the Current State) may be quantified as point estimates (scalars), probability distributions, or mixtures of probability distributions.</t>
   </si>
   <si>
@@ -547,180 +499,6 @@
     <t>impact/energy</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.651, scale=0.098)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.64974, scale=0.12852)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.63336, scale=0.18928)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.62475, scale=0.2205)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.7056, scale=0.1568)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.71645, scale=0.1771)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.7308, scale=0.2184)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.61509, scale=0.18382)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.62006, scale=0.20188)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.6174, scale=0.2352)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.5456, scale=0.1488)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.569842, scale=0.112716)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.581126, scale=0.114948)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.5859, scale=0.1302)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.589248, scale=0.160704)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.598734, scale=0.178932)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.602516, scale=0.196168)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.543864, scale=0.177072)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.541632, scale=0.206336)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.538904, scale=0.236592)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.397536, scale=0.174528)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.42024, scale=0.14832)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.439296, scale=0.119808)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.40824, scale=0.19152)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.435456, scale=0.165888)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.463536, scale=0.138528)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.39552, scale=0.19776)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.416016, scale=0.195168)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.434256, scale=0.177888)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.4264, scale=0.1872)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.44772, scale=0.19656)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.454896, scale=0.213408)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.467532, scale=0.219336)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.466128, scale=0.190944)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.487708, scale=0.199784)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.498888, scale=0.219024)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.429624, scale=0.201552)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.42588, scale=0.24024)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.44044, scale=0.26312)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.5915, scale=0.117)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.607425, scale=0.15015)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.60372, scale=0.19656)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.613275, scale=0.21645)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.62478, scale=0.15444)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.653705, scale=0.16159)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.68198, scale=0.22204)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.59488, scale=0.16224)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.591175, scale=0.20865)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.60424, scale=0.24752)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.5, loc=0.679, scale=0.042)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.67116, scale=0.08568)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.67704, scale=0.10192)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.65912, scale=0.17976)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.7182, scale=0.0756000000000001)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.7406, scale=0.1288)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.7623, scale=0.1694)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.66248, scale=0.13104)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.65415, scale=0.1617)</t>
-  </si>
-  <si>
     <t>person-hours/mass</t>
   </si>
   <si>
@@ -814,9 +592,6 @@
     <t>Data in this dataset and in the parameters dataset may be specified as point estimates, distributions as shown here, or mixtures of distributions (See Output G for Technology A, Current State).</t>
   </si>
   <si>
-    <t>mixture(st.triang(c=0.5, loc=0.3792, scale=0.2016), st.triang(c=0.5, loc=0.42, scale=0.19))</t>
-  </si>
-  <si>
     <t>Allowable distributions and their parameters are listed on the scipy.stats page: https://docs.scipy.org/doc/scipy/reference/stats.html</t>
   </si>
   <si>
@@ -829,12 +604,6 @@
     <t>Every Output must be listed for every Technology, even if that Technology does not produce the Output.</t>
   </si>
   <si>
-    <t>Because Technology M doesn't involve Component B0, this value isn't used anywhere in the Technology M model. Therefore this value (and the other B-related lifetimes) can be set to 0.</t>
-  </si>
-  <si>
-    <t>Because Technology A doesn't involve Component N, this value isn't used anywhere in the Technology A model. Therefore this value can be set to 0.</t>
-  </si>
-  <si>
     <t>Parameter values vary by Scenario, as do Designs, and values may be point estimates (scalars), probability distributions (shown in the designs dataset), or mixtures of distributions (to incorporate multiple distributions, shown in the designs dataset)</t>
   </si>
   <si>
@@ -881,6 +650,237 @@
   </si>
   <si>
     <t>Conversion efficiency for component N</t>
+  </si>
+  <si>
+    <t>Even though Technology A doesn't involve Component N, this Lifetime value needs to be a non-zero number to avoid divide-by-zero errors.</t>
+  </si>
+  <si>
+    <t>Even though Technology M doesn't involve Component B0, this Lifetime value needs to be a non-zero number to avoid divide-by-zero errors.</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.762, scale=0.036)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.8657, scale=0.1043)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.8378, scale=0.0873)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.8269, scale=0.0623)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.8614, scale=0.0172)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.9076, scale=0.0624)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.9002, scale=0.0614)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.8924, scale=0.0422)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.7868, scale=0.0264)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.891, scale=0.079)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.8682, scale=0.0716)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.8568, scale=0.0465)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.8556, scale=0.0287)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.8669, scale=0.041)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.8864, scale=0.0543)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.8887, scale=0.067)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.6838, scale=0.0323)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6928, scale=0.0424)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6968, scale=0.0625)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6986, scale=0.0728)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.7581, scale=0.0517)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.7758, scale=0.0584)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.804, scale=0.0721)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6767, scale=0.0607)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6877, scale=0.0666)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6962, scale=0.0776)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.5954, scale=0.0491)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6076, scale=0.0372)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6196, scale=0.0379)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6295, scale=0.043)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6682, scale=0.0647)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6587, scale=0.059)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6431, scale=0.053)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6182, scale=0.0781)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6108, scale=0.0681)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6032, scale=0.0584)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.4467, scale=0.0665)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.456, scale=0.0576)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.4699, scale=0.0489)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.4794, scale=0.0395)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.4724, scale=0.0632)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.491, scale=0.0547)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.5099, scale=0.0457)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.4618, scale=0.0653)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.4814, scale=0.0644)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.4938, scale=0.0587)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.6931, scale=0.0139)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.7193, scale=0.0593)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.7112, scale=0.0336)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6999, scale=0.0283)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.7435, scale=0.0249)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.7837, scale=0.0425)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.819, scale=0.0559)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.7064, scale=0.0432)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.7083, scale=0.0534)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.6307, scale=0.0386)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6577, scale=0.0495)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6696, scale=0.0649)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6858, scale=0.0714)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6765, scale=0.051)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.7078, scale=0.0533)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.7564, scale=0.0733)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6492, scale=0.0535)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6611, scale=0.0689)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6872, scale=0.0817)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.4891, scale=0.0618)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.5136, scale=0.0649)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.5264, scale=0.0704)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.541, scale=0.0724)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.5301, scale=0.063)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.5546, scale=0.0659)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.5723, scale=0.0723)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.4971, scale=0.0665)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.5064, scale=0.0793)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.5286, scale=0.0868)</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1676,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1851,7 @@
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5703125" customWidth="1"/>
   </cols>
@@ -1956,13 +1956,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1979,13 +1979,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -2108,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -2128,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -2171,13 +2171,13 @@
         <v>91</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -2217,7 +2217,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -2237,7 +2237,7 @@
         <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2349,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,13 +2426,13 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -2526,16 +2526,16 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2549,10 +2549,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -2569,10 +2569,10 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -2632,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
@@ -2652,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -2672,7 +2672,7 @@
         <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -2821,7 +2821,7 @@
         <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -2861,7 +2861,7 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
         <v>47</v>
@@ -2961,7 +2961,7 @@
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -2981,7 +2981,7 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -3001,7 +3001,7 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -3044,7 +3044,7 @@
         <v>91</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
         <v>49</v>
@@ -3064,7 +3064,7 @@
         <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
@@ -3084,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
@@ -3104,7 +3104,7 @@
         <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
@@ -3281,7 +3281,7 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
@@ -3301,7 +3301,7 @@
         <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
@@ -3378,10 +3378,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
         <v>49</v>
@@ -3398,10 +3398,10 @@
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
         <v>49</v>
@@ -3418,10 +3418,10 @@
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -3481,7 +3481,7 @@
         <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
@@ -3501,7 +3501,7 @@
         <v>44</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="F80" t="s">
         <v>47</v>
@@ -3521,7 +3521,7 @@
         <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="F81" t="s">
         <v>47</v>
@@ -3678,7 +3678,7 @@
         <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
@@ -3698,7 +3698,7 @@
         <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
@@ -3795,7 +3795,7 @@
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -3815,7 +3815,7 @@
         <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -3878,7 +3878,7 @@
         <v>91</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -3898,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
@@ -3918,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
@@ -3938,7 +3938,7 @@
         <v>93</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F102" t="s">
         <v>47</v>
@@ -4115,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
         <v>47</v>
@@ -4135,7 +4135,7 @@
         <v>92</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
         <v>47</v>
@@ -4212,10 +4212,10 @@
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
         <v>49</v>
@@ -4232,10 +4232,10 @@
         <v>36</v>
       </c>
       <c r="D117" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F117" t="s">
         <v>49</v>
@@ -4252,10 +4252,10 @@
         <v>36</v>
       </c>
       <c r="D118" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -4315,7 +4315,7 @@
         <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
@@ -4335,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="F122" t="s">
         <v>47</v>
@@ -4355,7 +4355,7 @@
         <v>93</v>
       </c>
       <c r="E123" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="F123" t="s">
         <v>47</v>
@@ -4512,7 +4512,7 @@
         <v>39</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s">
         <v>47</v>
@@ -4532,7 +4532,7 @@
         <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F132" t="s">
         <v>47</v>
@@ -4629,7 +4629,7 @@
         <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -4649,7 +4649,7 @@
         <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E138">
         <v>20</v>
@@ -4669,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -4712,7 +4712,7 @@
         <v>91</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F141" t="s">
         <v>49</v>
@@ -4732,7 +4732,7 @@
         <v>43</v>
       </c>
       <c r="E142" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="F142" t="s">
         <v>47</v>
@@ -4752,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="F143" t="s">
         <v>47</v>
@@ -4772,7 +4772,7 @@
         <v>93</v>
       </c>
       <c r="E144" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F144" t="s">
         <v>47</v>
@@ -4949,7 +4949,7 @@
         <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="F153" t="s">
         <v>47</v>
@@ -4969,7 +4969,7 @@
         <v>92</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="F154" t="s">
         <v>47</v>
@@ -5046,10 +5046,10 @@
         <v>36</v>
       </c>
       <c r="D158" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
         <v>49</v>
@@ -5066,10 +5066,10 @@
         <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F159" t="s">
         <v>49</v>
@@ -5086,10 +5086,10 @@
         <v>36</v>
       </c>
       <c r="D160" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F160" t="s">
         <v>49</v>
@@ -5149,7 +5149,7 @@
         <v>43</v>
       </c>
       <c r="E163" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F163" t="s">
         <v>47</v>
@@ -5169,7 +5169,7 @@
         <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="F164" t="s">
         <v>47</v>
@@ -5189,7 +5189,7 @@
         <v>93</v>
       </c>
       <c r="E165" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="F165" t="s">
         <v>47</v>
@@ -5463,7 +5463,7 @@
         <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E179">
         <v>20</v>
@@ -5483,7 +5483,7 @@
         <v>36</v>
       </c>
       <c r="D180" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E180">
         <v>20</v>
@@ -5503,7 +5503,7 @@
         <v>36</v>
       </c>
       <c r="D181" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E181">
         <v>20</v>
@@ -5546,7 +5546,7 @@
         <v>91</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F183" t="s">
         <v>49</v>
@@ -5566,7 +5566,7 @@
         <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="F184" t="s">
         <v>47</v>
@@ -5586,7 +5586,7 @@
         <v>44</v>
       </c>
       <c r="E185" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="F185" t="s">
         <v>47</v>
@@ -5606,7 +5606,7 @@
         <v>93</v>
       </c>
       <c r="E186" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="F186" t="s">
         <v>47</v>
@@ -5880,10 +5880,10 @@
         <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F200" t="s">
         <v>49</v>
@@ -5900,10 +5900,10 @@
         <v>36</v>
       </c>
       <c r="D201" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F201" t="s">
         <v>49</v>
@@ -5920,10 +5920,10 @@
         <v>36</v>
       </c>
       <c r="D202" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F202" t="s">
         <v>49</v>
@@ -5983,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="E205" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F205" t="s">
         <v>47</v>
@@ -6003,7 +6003,7 @@
         <v>44</v>
       </c>
       <c r="E206" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="F206" t="s">
         <v>47</v>
@@ -6023,7 +6023,7 @@
         <v>93</v>
       </c>
       <c r="E207" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="F207" t="s">
         <v>47</v>
@@ -6297,7 +6297,7 @@
         <v>36</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E221">
         <v>20</v>
@@ -6317,7 +6317,7 @@
         <v>36</v>
       </c>
       <c r="D222" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E222">
         <v>20</v>
@@ -6337,7 +6337,7 @@
         <v>36</v>
       </c>
       <c r="D223" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E223">
         <v>20</v>
@@ -6380,7 +6380,7 @@
         <v>91</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F225" t="s">
         <v>49</v>
@@ -6400,7 +6400,7 @@
         <v>43</v>
       </c>
       <c r="E226" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="F226" t="s">
         <v>47</v>
@@ -6420,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="F227" t="s">
         <v>47</v>
@@ -6440,7 +6440,7 @@
         <v>93</v>
       </c>
       <c r="E228" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F228" t="s">
         <v>47</v>
@@ -6714,10 +6714,10 @@
         <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F242" t="s">
         <v>49</v>
@@ -6734,10 +6734,10 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F243" t="s">
         <v>49</v>
@@ -6754,10 +6754,10 @@
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F244" t="s">
         <v>49</v>
@@ -6817,7 +6817,7 @@
         <v>43</v>
       </c>
       <c r="E247" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F247" t="s">
         <v>47</v>
@@ -6837,7 +6837,7 @@
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="F248" t="s">
         <v>47</v>
@@ -6857,7 +6857,7 @@
         <v>93</v>
       </c>
       <c r="E249" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="F249" t="s">
         <v>47</v>
@@ -7131,7 +7131,7 @@
         <v>36</v>
       </c>
       <c r="D263" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E263">
         <v>20</v>
@@ -7151,7 +7151,7 @@
         <v>36</v>
       </c>
       <c r="D264" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E264">
         <v>20</v>
@@ -7171,7 +7171,7 @@
         <v>36</v>
       </c>
       <c r="D265" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E265">
         <v>20</v>
@@ -7214,7 +7214,7 @@
         <v>91</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F267" t="s">
         <v>49</v>
@@ -7234,7 +7234,7 @@
         <v>43</v>
       </c>
       <c r="E268" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="F268" t="s">
         <v>47</v>
@@ -7254,7 +7254,7 @@
         <v>44</v>
       </c>
       <c r="E269" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F269" t="s">
         <v>47</v>
@@ -7274,7 +7274,7 @@
         <v>93</v>
       </c>
       <c r="E270" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F270" t="s">
         <v>47</v>
@@ -7548,10 +7548,10 @@
         <v>36</v>
       </c>
       <c r="D284" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F284" t="s">
         <v>49</v>
@@ -7568,10 +7568,10 @@
         <v>36</v>
       </c>
       <c r="D285" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F285" t="s">
         <v>49</v>
@@ -7588,10 +7588,10 @@
         <v>36</v>
       </c>
       <c r="D286" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F286" t="s">
         <v>49</v>
@@ -7651,7 +7651,7 @@
         <v>43</v>
       </c>
       <c r="E289" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F289" t="s">
         <v>47</v>
@@ -7671,7 +7671,7 @@
         <v>44</v>
       </c>
       <c r="E290" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="F290" t="s">
         <v>47</v>
@@ -7691,7 +7691,7 @@
         <v>93</v>
       </c>
       <c r="E291" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="F291" t="s">
         <v>47</v>
@@ -7965,7 +7965,7 @@
         <v>36</v>
       </c>
       <c r="D305" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E305">
         <v>20</v>
@@ -7985,7 +7985,7 @@
         <v>36</v>
       </c>
       <c r="D306" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E306">
         <v>20</v>
@@ -8005,7 +8005,7 @@
         <v>36</v>
       </c>
       <c r="D307" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E307">
         <v>20</v>
@@ -8048,7 +8048,7 @@
         <v>91</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F309" t="s">
         <v>49</v>
@@ -8068,7 +8068,7 @@
         <v>43</v>
       </c>
       <c r="E310" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="F310" t="s">
         <v>47</v>
@@ -8088,7 +8088,7 @@
         <v>44</v>
       </c>
       <c r="E311" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="F311" t="s">
         <v>47</v>
@@ -8108,7 +8108,7 @@
         <v>93</v>
       </c>
       <c r="E312" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F312" t="s">
         <v>47</v>
@@ -8382,10 +8382,10 @@
         <v>36</v>
       </c>
       <c r="D326" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F326" t="s">
         <v>49</v>
@@ -8402,10 +8402,10 @@
         <v>36</v>
       </c>
       <c r="D327" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F327" t="s">
         <v>49</v>
@@ -8422,10 +8422,10 @@
         <v>36</v>
       </c>
       <c r="D328" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F328" t="s">
         <v>49</v>
@@ -8485,7 +8485,7 @@
         <v>43</v>
       </c>
       <c r="E331" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="F331" t="s">
         <v>47</v>
@@ -8505,7 +8505,7 @@
         <v>44</v>
       </c>
       <c r="E332" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="F332" t="s">
         <v>47</v>
@@ -8525,7 +8525,7 @@
         <v>93</v>
       </c>
       <c r="E333" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="F333" t="s">
         <v>47</v>
@@ -8799,7 +8799,7 @@
         <v>36</v>
       </c>
       <c r="D347" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E347">
         <v>20</v>
@@ -8819,7 +8819,7 @@
         <v>36</v>
       </c>
       <c r="D348" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E348">
         <v>20</v>
@@ -8839,7 +8839,7 @@
         <v>36</v>
       </c>
       <c r="D349" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E349">
         <v>20</v>
@@ -8882,7 +8882,7 @@
         <v>91</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F351" t="s">
         <v>49</v>
@@ -8902,7 +8902,7 @@
         <v>43</v>
       </c>
       <c r="E352" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F352" t="s">
         <v>47</v>
@@ -8922,7 +8922,7 @@
         <v>44</v>
       </c>
       <c r="E353" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="F353" t="s">
         <v>47</v>
@@ -8942,7 +8942,7 @@
         <v>93</v>
       </c>
       <c r="E354" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F354" t="s">
         <v>47</v>
@@ -9216,10 +9216,10 @@
         <v>36</v>
       </c>
       <c r="D368" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F368" t="s">
         <v>49</v>
@@ -9236,10 +9236,10 @@
         <v>36</v>
       </c>
       <c r="D369" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F369" t="s">
         <v>49</v>
@@ -9256,10 +9256,10 @@
         <v>36</v>
       </c>
       <c r="D370" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F370" t="s">
         <v>49</v>
@@ -9319,7 +9319,7 @@
         <v>43</v>
       </c>
       <c r="E373" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F373" t="s">
         <v>47</v>
@@ -9339,7 +9339,7 @@
         <v>44</v>
       </c>
       <c r="E374" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F374" t="s">
         <v>47</v>
@@ -9359,7 +9359,7 @@
         <v>93</v>
       </c>
       <c r="E375" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="F375" t="s">
         <v>47</v>
@@ -9633,7 +9633,7 @@
         <v>36</v>
       </c>
       <c r="D389" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E389">
         <v>20</v>
@@ -9653,7 +9653,7 @@
         <v>36</v>
       </c>
       <c r="D390" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E390">
         <v>20</v>
@@ -9673,7 +9673,7 @@
         <v>36</v>
       </c>
       <c r="D391" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E391">
         <v>20</v>
@@ -9716,7 +9716,7 @@
         <v>91</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F393" t="s">
         <v>49</v>
@@ -9736,7 +9736,7 @@
         <v>43</v>
       </c>
       <c r="E394" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="F394" t="s">
         <v>47</v>
@@ -9756,7 +9756,7 @@
         <v>44</v>
       </c>
       <c r="E395" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="F395" t="s">
         <v>47</v>
@@ -9776,7 +9776,7 @@
         <v>93</v>
       </c>
       <c r="E396" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F396" t="s">
         <v>47</v>
@@ -10050,10 +10050,10 @@
         <v>36</v>
       </c>
       <c r="D410" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F410" t="s">
         <v>49</v>
@@ -10070,10 +10070,10 @@
         <v>36</v>
       </c>
       <c r="D411" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F411" t="s">
         <v>49</v>
@@ -10090,10 +10090,10 @@
         <v>36</v>
       </c>
       <c r="D412" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F412" t="s">
         <v>49</v>
@@ -10153,7 +10153,7 @@
         <v>43</v>
       </c>
       <c r="E415" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F415" t="s">
         <v>47</v>
@@ -10173,7 +10173,7 @@
         <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F416" t="s">
         <v>47</v>
@@ -10193,7 +10193,7 @@
         <v>93</v>
       </c>
       <c r="E417" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="F417" t="s">
         <v>47</v>
@@ -10291,8 +10291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9375A35C-8A58-4D70-9436-2E641DE51D25}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10337,7 +10337,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>200000</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10369,10 +10369,10 @@
         <v>100000</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -10392,10 +10392,10 @@
         <v>50000</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10415,10 +10415,10 @@
         <v>250000</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10438,10 +10438,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10461,10 +10461,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10484,10 +10484,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10507,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10530,10 +10530,10 @@
         <v>1.8</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10553,10 +10553,10 @@
         <v>0.23</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -10579,7 +10579,7 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -10602,7 +10602,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -10625,7 +10625,7 @@
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -10648,7 +10648,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -10671,7 +10671,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>200000</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -10705,7 +10705,7 @@
         <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10714,7 +10714,7 @@
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
@@ -10728,7 +10728,7 @@
         <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -10737,7 +10737,7 @@
         <v>50000</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
         <v>73</v>
@@ -10760,10 +10760,10 @@
         <v>250000</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10803,7 +10803,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10823,7 +10823,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
         <v>1.8</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
         <v>0.23</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -10914,7 +10914,7 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -10934,7 +10934,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -10954,7 +10954,7 @@
         <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>13</v>
@@ -10974,7 +10974,7 @@
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -10994,7 +10994,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>200000</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11014,7 +11014,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -11023,7 +11023,7 @@
         <v>100000</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
         <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>50000</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
         <v>250000</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11103,7 +11103,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11123,7 +11123,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11163,7 +11163,7 @@
         <v>1.8</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11183,7 +11183,7 @@
         <v>0.23</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11194,7 +11194,7 @@
         <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -11214,7 +11214,7 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D43">
         <v>11</v>
@@ -11234,7 +11234,7 @@
         <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -11254,7 +11254,7 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -11274,7 +11274,7 @@
         <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -11294,7 +11294,7 @@
         <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>200000</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
         <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>100000</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -11334,7 +11334,7 @@
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -11343,7 +11343,7 @@
         <v>50000</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -11363,7 +11363,7 @@
         <v>250000</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -11403,7 +11403,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11423,7 +11423,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
         <v>1.8</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -11483,7 +11483,7 @@
         <v>0.23</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -11494,7 +11494,7 @@
         <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -11514,7 +11514,7 @@
         <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -11534,7 +11534,7 @@
         <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -11554,7 +11554,7 @@
         <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D60">
         <v>13</v>
@@ -11574,7 +11574,7 @@
         <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D61">
         <v>14</v>
@@ -11594,7 +11594,7 @@
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -11603,7 +11603,7 @@
         <v>200000</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -11614,7 +11614,7 @@
         <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -11623,7 +11623,7 @@
         <v>100000</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11634,7 +11634,7 @@
         <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -11643,7 +11643,7 @@
         <v>50000</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -11663,7 +11663,7 @@
         <v>250000</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -11703,7 +11703,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -11723,7 +11723,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>1.8</v>
       </c>
       <c r="F70" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
         <v>0.23</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11794,7 +11794,7 @@
         <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D72">
         <v>10</v>
@@ -11814,7 +11814,7 @@
         <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -11834,7 +11834,7 @@
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>12</v>
@@ -11854,7 +11854,7 @@
         <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D75">
         <v>13</v>
@@ -11874,7 +11874,7 @@
         <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D76">
         <v>14</v>
@@ -11894,7 +11894,7 @@
         <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>200000</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -11914,7 +11914,7 @@
         <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -11923,7 +11923,7 @@
         <v>100000</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -11934,7 +11934,7 @@
         <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>50000</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>250000</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -11983,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -12003,7 +12003,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -12023,7 +12023,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -12063,7 +12063,7 @@
         <v>1.8</v>
       </c>
       <c r="F85" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -12083,7 +12083,7 @@
         <v>0.23</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12094,7 +12094,7 @@
         <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D87">
         <v>10</v>
@@ -12114,7 +12114,7 @@
         <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D88">
         <v>11</v>
@@ -12134,7 +12134,7 @@
         <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -12154,7 +12154,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D90">
         <v>13</v>
@@ -12174,7 +12174,7 @@
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D91">
         <v>14</v>
@@ -12194,7 +12194,7 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>200000</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -12214,7 +12214,7 @@
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -12223,7 +12223,7 @@
         <v>100000</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -12234,7 +12234,7 @@
         <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -12243,7 +12243,7 @@
         <v>50000</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -12263,7 +12263,7 @@
         <v>250000</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -12303,7 +12303,7 @@
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -12323,7 +12323,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -12363,7 +12363,7 @@
         <v>1.8</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -12383,7 +12383,7 @@
         <v>0.23</v>
       </c>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -12394,7 +12394,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D102">
         <v>10</v>
@@ -12414,7 +12414,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -12434,7 +12434,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D104">
         <v>12</v>
@@ -12454,7 +12454,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D105">
         <v>13</v>
@@ -12474,7 +12474,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D106">
         <v>14</v>
@@ -12494,7 +12494,7 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>200000</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -12514,7 +12514,7 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -12523,7 +12523,7 @@
         <v>100000</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -12534,7 +12534,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -12543,7 +12543,7 @@
         <v>50000</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -12563,7 +12563,7 @@
         <v>250000</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -12603,7 +12603,7 @@
         <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,7 +12623,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -12663,7 +12663,7 @@
         <v>1.8</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
         <v>0.23</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -12694,7 +12694,7 @@
         <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -12714,7 +12714,7 @@
         <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D118">
         <v>11</v>
@@ -12734,7 +12734,7 @@
         <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D119">
         <v>12</v>
@@ -12754,7 +12754,7 @@
         <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D120">
         <v>13</v>
@@ -12774,7 +12774,7 @@
         <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D121">
         <v>14</v>
@@ -12794,7 +12794,7 @@
         <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -12803,7 +12803,7 @@
         <v>200000</v>
       </c>
       <c r="F122" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -12814,7 +12814,7 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -12823,7 +12823,7 @@
         <v>100000</v>
       </c>
       <c r="F123" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -12834,7 +12834,7 @@
         <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -12843,7 +12843,7 @@
         <v>50000</v>
       </c>
       <c r="F124" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -12863,7 +12863,7 @@
         <v>250000</v>
       </c>
       <c r="F125" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -12903,7 +12903,7 @@
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -12923,7 +12923,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,7 +12963,7 @@
         <v>1.8</v>
       </c>
       <c r="F130" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
         <v>0.23</v>
       </c>
       <c r="F131" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -12994,7 +12994,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D132">
         <v>10</v>
@@ -13014,7 +13014,7 @@
         <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D133">
         <v>11</v>
@@ -13034,7 +13034,7 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D134">
         <v>12</v>
@@ -13054,7 +13054,7 @@
         <v>130</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D135">
         <v>13</v>
@@ -13074,7 +13074,7 @@
         <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D136">
         <v>14</v>
@@ -13094,7 +13094,7 @@
         <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -13103,7 +13103,7 @@
         <v>200000</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -13114,7 +13114,7 @@
         <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -13123,7 +13123,7 @@
         <v>100000</v>
       </c>
       <c r="F138" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -13134,7 +13134,7 @@
         <v>110</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -13143,7 +13143,7 @@
         <v>50000</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,7 +13163,7 @@
         <v>250000</v>
       </c>
       <c r="F140" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -13203,7 +13203,7 @@
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -13223,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>1.8</v>
       </c>
       <c r="F145" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -13283,7 +13283,7 @@
         <v>0.23</v>
       </c>
       <c r="F146" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -13294,7 +13294,7 @@
         <v>110</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D147">
         <v>10</v>
@@ -13314,7 +13314,7 @@
         <v>110</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D148">
         <v>11</v>
@@ -13334,7 +13334,7 @@
         <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -13354,7 +13354,7 @@
         <v>110</v>
       </c>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D150">
         <v>13</v>
@@ -13374,7 +13374,7 @@
         <v>110</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>14</v>
@@ -13394,7 +13394,7 @@
         <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -13414,7 +13414,7 @@
         <v>45</v>
       </c>
       <c r="C153" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -13434,7 +13434,7 @@
         <v>45</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -13463,7 +13463,7 @@
         <v>250000</v>
       </c>
       <c r="F155" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -13483,7 +13483,7 @@
         <v>275000</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -13543,7 +13543,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -13563,7 +13563,7 @@
         <v>1.8</v>
       </c>
       <c r="F160" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -13583,7 +13583,7 @@
         <v>0.23</v>
       </c>
       <c r="F161" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -13594,7 +13594,7 @@
         <v>45</v>
       </c>
       <c r="C162" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D162">
         <v>10</v>
@@ -13614,7 +13614,7 @@
         <v>45</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D163">
         <v>11</v>
@@ -13634,7 +13634,7 @@
         <v>45</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D164">
         <v>12</v>
@@ -13654,7 +13654,7 @@
         <v>45</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D165">
         <v>13</v>
@@ -13674,7 +13674,7 @@
         <v>45</v>
       </c>
       <c r="C166" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D166">
         <v>14</v>
@@ -13694,7 +13694,7 @@
         <v>128</v>
       </c>
       <c r="C167" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -13703,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
+        <v>147</v>
+      </c>
+      <c r="G167" t="s">
         <v>163</v>
-      </c>
-      <c r="G167" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
         <v>128</v>
       </c>
       <c r="C168" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
         <v>128</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -13766,7 +13766,7 @@
         <v>250000</v>
       </c>
       <c r="F170" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -13786,7 +13786,7 @@
         <v>275000</v>
       </c>
       <c r="F171" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -13826,7 +13826,7 @@
         <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -13846,7 +13846,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -13866,7 +13866,7 @@
         <v>1.8</v>
       </c>
       <c r="F175" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -13886,7 +13886,7 @@
         <v>0.23</v>
       </c>
       <c r="F176" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -13897,7 +13897,7 @@
         <v>128</v>
       </c>
       <c r="C177" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D177">
         <v>10</v>
@@ -13909,7 +13909,7 @@
         <v>47</v>
       </c>
       <c r="G177" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
         <v>128</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D178">
         <v>11</v>
@@ -13940,7 +13940,7 @@
         <v>128</v>
       </c>
       <c r="C179" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D179">
         <v>12</v>
@@ -13960,7 +13960,7 @@
         <v>128</v>
       </c>
       <c r="C180" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D180">
         <v>13</v>
@@ -13980,7 +13980,7 @@
         <v>128</v>
       </c>
       <c r="C181" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D181">
         <v>14</v>
@@ -14000,7 +14000,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -14020,7 +14020,7 @@
         <v>127</v>
       </c>
       <c r="C183" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>127</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -14069,7 +14069,7 @@
         <v>250000</v>
       </c>
       <c r="F185" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -14089,7 +14089,7 @@
         <v>275000</v>
       </c>
       <c r="F186" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -14129,7 +14129,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -14149,7 +14149,7 @@
         <v>8</v>
       </c>
       <c r="F189" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -14169,7 +14169,7 @@
         <v>1.8</v>
       </c>
       <c r="F190" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -14189,7 +14189,7 @@
         <v>0.23</v>
       </c>
       <c r="F191" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -14200,7 +14200,7 @@
         <v>127</v>
       </c>
       <c r="C192" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D192">
         <v>10</v>
@@ -14220,7 +14220,7 @@
         <v>127</v>
       </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D193">
         <v>11</v>
@@ -14240,7 +14240,7 @@
         <v>127</v>
       </c>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D194">
         <v>12</v>
@@ -14260,7 +14260,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D195">
         <v>13</v>
@@ -14280,7 +14280,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D196">
         <v>14</v>
@@ -14300,7 +14300,7 @@
         <v>126</v>
       </c>
       <c r="C197" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -14320,7 +14320,7 @@
         <v>126</v>
       </c>
       <c r="C198" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -14340,7 +14340,7 @@
         <v>126</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -14369,7 +14369,7 @@
         <v>250000</v>
       </c>
       <c r="F200" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -14389,7 +14389,7 @@
         <v>275000</v>
       </c>
       <c r="F201" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -14429,7 +14429,7 @@
         <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -14449,7 +14449,7 @@
         <v>8</v>
       </c>
       <c r="F204" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -14469,7 +14469,7 @@
         <v>1.8</v>
       </c>
       <c r="F205" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -14489,7 +14489,7 @@
         <v>0.23</v>
       </c>
       <c r="F206" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
         <v>126</v>
       </c>
       <c r="C207" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D207">
         <v>10</v>
@@ -14520,7 +14520,7 @@
         <v>126</v>
       </c>
       <c r="C208" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D208">
         <v>11</v>
@@ -14540,7 +14540,7 @@
         <v>126</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D209">
         <v>12</v>
@@ -14560,7 +14560,7 @@
         <v>126</v>
       </c>
       <c r="C210" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D210">
         <v>13</v>
@@ -14580,7 +14580,7 @@
         <v>126</v>
       </c>
       <c r="C211" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D211">
         <v>14</v>
@@ -14600,7 +14600,7 @@
         <v>105</v>
       </c>
       <c r="C212" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -14620,7 +14620,7 @@
         <v>105</v>
       </c>
       <c r="C213" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -14640,7 +14640,7 @@
         <v>105</v>
       </c>
       <c r="C214" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -14669,7 +14669,7 @@
         <v>250000</v>
       </c>
       <c r="F215" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -14689,7 +14689,7 @@
         <v>275000</v>
       </c>
       <c r="F216" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -14729,7 +14729,7 @@
         <v>7</v>
       </c>
       <c r="F218" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -14749,7 +14749,7 @@
         <v>8</v>
       </c>
       <c r="F219" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
         <v>1.8</v>
       </c>
       <c r="F220" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>0.23</v>
       </c>
       <c r="F221" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -14800,7 +14800,7 @@
         <v>105</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -14820,7 +14820,7 @@
         <v>105</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D223">
         <v>11</v>
@@ -14840,7 +14840,7 @@
         <v>105</v>
       </c>
       <c r="C224" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D224">
         <v>12</v>
@@ -14860,7 +14860,7 @@
         <v>105</v>
       </c>
       <c r="C225" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D225">
         <v>13</v>
@@ -14880,7 +14880,7 @@
         <v>105</v>
       </c>
       <c r="C226" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D226">
         <v>14</v>
@@ -14900,7 +14900,7 @@
         <v>129</v>
       </c>
       <c r="C227" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -14920,7 +14920,7 @@
         <v>129</v>
       </c>
       <c r="C228" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -14940,7 +14940,7 @@
         <v>129</v>
       </c>
       <c r="C229" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -14969,7 +14969,7 @@
         <v>250000</v>
       </c>
       <c r="F230" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -14989,7 +14989,7 @@
         <v>275000</v>
       </c>
       <c r="F231" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -15009,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -15029,7 +15029,7 @@
         <v>7</v>
       </c>
       <c r="F233" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -15049,7 +15049,7 @@
         <v>8</v>
       </c>
       <c r="F234" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -15069,7 +15069,7 @@
         <v>1.8</v>
       </c>
       <c r="F235" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -15089,7 +15089,7 @@
         <v>0.23</v>
       </c>
       <c r="F236" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -15100,7 +15100,7 @@
         <v>129</v>
       </c>
       <c r="C237" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -15120,7 +15120,7 @@
         <v>129</v>
       </c>
       <c r="C238" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D238">
         <v>11</v>
@@ -15140,7 +15140,7 @@
         <v>129</v>
       </c>
       <c r="C239" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D239">
         <v>12</v>
@@ -15160,7 +15160,7 @@
         <v>129</v>
       </c>
       <c r="C240" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D240">
         <v>13</v>
@@ -15180,7 +15180,7 @@
         <v>129</v>
       </c>
       <c r="C241" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D241">
         <v>14</v>
@@ -15200,7 +15200,7 @@
         <v>104</v>
       </c>
       <c r="C242" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -15220,7 +15220,7 @@
         <v>104</v>
       </c>
       <c r="C243" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -15240,7 +15240,7 @@
         <v>104</v>
       </c>
       <c r="C244" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -15269,7 +15269,7 @@
         <v>250000</v>
       </c>
       <c r="F245" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -15289,7 +15289,7 @@
         <v>275000</v>
       </c>
       <c r="F246" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -15329,7 +15329,7 @@
         <v>7</v>
       </c>
       <c r="F248" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -15349,7 +15349,7 @@
         <v>8</v>
       </c>
       <c r="F249" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -15369,7 +15369,7 @@
         <v>1.8</v>
       </c>
       <c r="F250" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -15389,7 +15389,7 @@
         <v>0.23</v>
       </c>
       <c r="F251" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -15400,7 +15400,7 @@
         <v>104</v>
       </c>
       <c r="C252" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D252">
         <v>10</v>
@@ -15420,7 +15420,7 @@
         <v>104</v>
       </c>
       <c r="C253" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -15440,7 +15440,7 @@
         <v>104</v>
       </c>
       <c r="C254" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D254">
         <v>12</v>
@@ -15460,7 +15460,7 @@
         <v>104</v>
       </c>
       <c r="C255" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D255">
         <v>13</v>
@@ -15480,7 +15480,7 @@
         <v>104</v>
       </c>
       <c r="C256" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D256">
         <v>14</v>
@@ -15500,7 +15500,7 @@
         <v>111</v>
       </c>
       <c r="C257" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -15520,7 +15520,7 @@
         <v>111</v>
       </c>
       <c r="C258" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -15540,7 +15540,7 @@
         <v>111</v>
       </c>
       <c r="C259" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -15569,7 +15569,7 @@
         <v>250000</v>
       </c>
       <c r="F260" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -15589,7 +15589,7 @@
         <v>275000</v>
       </c>
       <c r="F261" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="F263" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -15649,7 +15649,7 @@
         <v>8</v>
       </c>
       <c r="F264" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v>1.8</v>
       </c>
       <c r="F265" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -15689,7 +15689,7 @@
         <v>0.23</v>
       </c>
       <c r="F266" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -15700,7 +15700,7 @@
         <v>111</v>
       </c>
       <c r="C267" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D267">
         <v>10</v>
@@ -15720,7 +15720,7 @@
         <v>111</v>
       </c>
       <c r="C268" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D268">
         <v>11</v>
@@ -15740,7 +15740,7 @@
         <v>111</v>
       </c>
       <c r="C269" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -15760,7 +15760,7 @@
         <v>111</v>
       </c>
       <c r="C270" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D270">
         <v>13</v>
@@ -15780,7 +15780,7 @@
         <v>111</v>
       </c>
       <c r="C271" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D271">
         <v>14</v>
@@ -15800,7 +15800,7 @@
         <v>130</v>
       </c>
       <c r="C272" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -15820,7 +15820,7 @@
         <v>130</v>
       </c>
       <c r="C273" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -15840,7 +15840,7 @@
         <v>130</v>
       </c>
       <c r="C274" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -15869,7 +15869,7 @@
         <v>250000</v>
       </c>
       <c r="F275" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -15889,7 +15889,7 @@
         <v>275000</v>
       </c>
       <c r="F276" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -15929,7 +15929,7 @@
         <v>7</v>
       </c>
       <c r="F278" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>8</v>
       </c>
       <c r="F279" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -15969,7 +15969,7 @@
         <v>1.8</v>
       </c>
       <c r="F280" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -15989,7 +15989,7 @@
         <v>0.23</v>
       </c>
       <c r="F281" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -16000,7 +16000,7 @@
         <v>130</v>
       </c>
       <c r="C282" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D282">
         <v>10</v>
@@ -16020,7 +16020,7 @@
         <v>130</v>
       </c>
       <c r="C283" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D283">
         <v>11</v>
@@ -16040,7 +16040,7 @@
         <v>130</v>
       </c>
       <c r="C284" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -16060,7 +16060,7 @@
         <v>130</v>
       </c>
       <c r="C285" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D285">
         <v>13</v>
@@ -16080,7 +16080,7 @@
         <v>130</v>
       </c>
       <c r="C286" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D286">
         <v>14</v>
@@ -16100,7 +16100,7 @@
         <v>110</v>
       </c>
       <c r="C287" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -16120,7 +16120,7 @@
         <v>110</v>
       </c>
       <c r="C288" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -16140,7 +16140,7 @@
         <v>110</v>
       </c>
       <c r="C289" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -16169,7 +16169,7 @@
         <v>250000</v>
       </c>
       <c r="F290" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -16189,7 +16189,7 @@
         <v>275000</v>
       </c>
       <c r="F291" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -16229,7 +16229,7 @@
         <v>7</v>
       </c>
       <c r="F293" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -16249,7 +16249,7 @@
         <v>8</v>
       </c>
       <c r="F294" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -16269,7 +16269,7 @@
         <v>1.8</v>
       </c>
       <c r="F295" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -16289,7 +16289,7 @@
         <v>0.23</v>
       </c>
       <c r="F296" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -16300,7 +16300,7 @@
         <v>110</v>
       </c>
       <c r="C297" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="D297">
         <v>10</v>
@@ -16320,7 +16320,7 @@
         <v>110</v>
       </c>
       <c r="C298" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D298">
         <v>11</v>
@@ -16340,7 +16340,7 @@
         <v>110</v>
       </c>
       <c r="C299" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D299">
         <v>12</v>
@@ -16360,7 +16360,7 @@
         <v>110</v>
       </c>
       <c r="C300" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -16380,7 +16380,7 @@
         <v>110</v>
       </c>
       <c r="C301" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D301">
         <v>14</v>
@@ -16406,8 +16406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08421A62-7A7F-4754-940E-DE21752714F2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16555,7 +16555,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -16667,7 +16667,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -16787,10 +16787,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>126</v>
@@ -16804,10 +16804,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>126</v>
@@ -16818,10 +16818,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
         <v>126</v>
@@ -16866,10 +16866,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
@@ -16880,10 +16880,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -16894,10 +16894,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -16939,10 +16939,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -16953,10 +16953,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>128</v>
@@ -16967,10 +16967,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -17109,7 +17109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD318B56-38BD-4E5D-86D7-782D60429334}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -17140,10 +17140,10 @@
         <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
@@ -17154,10 +17154,10 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -17165,10 +17165,10 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -17223,10 +17223,10 @@
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -17234,10 +17234,10 @@
         <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17245,10 +17245,10 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17300,10 +17300,10 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -17311,10 +17311,10 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -17322,10 +17322,10 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -17377,10 +17377,10 @@
         <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -17388,10 +17388,10 @@
         <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -17399,10 +17399,10 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -17454,10 +17454,10 @@
         <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -17465,10 +17465,10 @@
         <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -17476,10 +17476,10 @@
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -17531,10 +17531,10 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -17542,10 +17542,10 @@
         <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -17553,10 +17553,10 @@
         <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A4A68-5D7D-4192-A660-8433574084E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96854E-4694-4B9B-A3D0-28F1764CC22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="1035" windowWidth="24660" windowHeight="14040" activeTab="4" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="29850" yWindow="1065" windowWidth="24660" windowHeight="14040" activeTab="2" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB20890-62B7-47AF-BA68-650F053D99C5}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10292,7 +10292,7 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10504,7 +10504,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>148</v>
@@ -10840,7 +10840,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -11140,7 +11140,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>148</v>
@@ -11440,7 +11440,7 @@
         <v>7</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
         <v>148</v>
@@ -11740,7 +11740,7 @@
         <v>7</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>148</v>
@@ -12040,7 +12040,7 @@
         <v>7</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
         <v>148</v>
@@ -12340,7 +12340,7 @@
         <v>7</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
         <v>148</v>
@@ -12640,7 +12640,7 @@
         <v>7</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
         <v>148</v>
@@ -12940,7 +12940,7 @@
         <v>7</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F129" t="s">
         <v>148</v>
@@ -13240,7 +13240,7 @@
         <v>7</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
         <v>148</v>
@@ -13500,7 +13500,7 @@
         <v>5</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F157" t="s">
         <v>148</v>
@@ -13803,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F172" t="s">
         <v>148</v>
@@ -14106,7 +14106,7 @@
         <v>5</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F187" t="s">
         <v>148</v>
@@ -14406,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F202" t="s">
         <v>148</v>
@@ -14706,7 +14706,7 @@
         <v>5</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F217" t="s">
         <v>148</v>
@@ -15006,7 +15006,7 @@
         <v>5</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F232" t="s">
         <v>148</v>
@@ -15306,7 +15306,7 @@
         <v>5</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F247" t="s">
         <v>148</v>
@@ -15606,7 +15606,7 @@
         <v>5</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F262" t="s">
         <v>148</v>
@@ -15906,7 +15906,7 @@
         <v>5</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F277" t="s">
         <v>148</v>
@@ -16206,7 +16206,7 @@
         <v>5</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F292" t="s">
         <v>148</v>
@@ -16406,7 +16406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08421A62-7A7F-4754-940E-DE21752714F2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/src/technology/template/template.xlsx
+++ b/src/technology/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96854E-4694-4B9B-A3D0-28F1764CC22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A636D7D5-7FD8-4D60-BD6E-079FEBFD493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="1065" windowWidth="24660" windowHeight="14040" activeTab="2" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{277ED3FD-2B20-4A36-BB03-16AF83BDC75C}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="267">
   <si>
     <t>Category</t>
   </si>
@@ -682,30 +682,12 @@
     <t>st.triang(c=0.55, loc=0.8924, scale=0.0422)</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.7868, scale=0.0264)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.891, scale=0.079)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.6, loc=0.8682, scale=0.0716)</t>
   </si>
   <si>
-    <t>st.triang(c=0.55, loc=0.8568, scale=0.0465)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.5, loc=0.8556, scale=0.0287)</t>
   </si>
   <si>
-    <t>st.triang(c=0.55, loc=0.8669, scale=0.041)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.8864, scale=0.0543)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.8887, scale=0.067)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.5, loc=0.6838, scale=0.0323)</t>
   </si>
   <si>
@@ -766,36 +748,6 @@
     <t>st.triang(c=0.55, loc=0.6032, scale=0.0584)</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.4467, scale=0.0665)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.456, scale=0.0576)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.4699, scale=0.0489)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.4794, scale=0.0395)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.4724, scale=0.0632)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.491, scale=0.0547)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.5099, scale=0.0457)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.4618, scale=0.0653)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.4814, scale=0.0644)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.4938, scale=0.0587)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.5, loc=0.6931, scale=0.0139)</t>
   </si>
   <si>
@@ -823,18 +775,6 @@
     <t>st.triang(c=0.65, loc=0.7083, scale=0.0534)</t>
   </si>
   <si>
-    <t>st.triang(c=0.5, loc=0.6307, scale=0.0386)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.55, loc=0.6577, scale=0.0495)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.6, loc=0.6696, scale=0.0649)</t>
-  </si>
-  <si>
-    <t>st.triang(c=0.65, loc=0.6858, scale=0.0714)</t>
-  </si>
-  <si>
     <t>st.triang(c=0.55, loc=0.6765, scale=0.051)</t>
   </si>
   <si>
@@ -881,6 +821,33 @@
   </si>
   <si>
     <t>st.triang(c=0.65, loc=0.5286, scale=0.0868)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.9139, scale=0.0561)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.9033, scale=0.0553)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.7671, scale=0.0257)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.5, loc=0.6016, scale=0.0368)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.8353, scale=0.0453)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.55, loc=0.6035, scale=0.0455)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.6, loc=0.6091, scale=0.059)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.8688, scale=0.1012)</t>
+  </si>
+  <si>
+    <t>st.triang(c=0.65, loc=0.6188, scale=0.0644)</t>
   </si>
 </sst>
 </file>
@@ -1238,17 +1205,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +1252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1302,7 +1269,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1319,7 +1286,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1333,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1398,7 +1365,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1415,7 +1382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1449,7 +1416,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +1464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1481,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1528,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1542,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1556,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1570,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1584,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -1598,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1612,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1626,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1640,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1654,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1668,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1682,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1696,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1710,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1742,19 +1709,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1842,21 +1809,21 @@
   <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E425" sqref="E425"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1919,7 +1886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1942,7 +1909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1965,7 +1932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +1978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2054,7 +2021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2137,7 +2104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2180,7 +2147,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2161,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -2203,7 +2170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2217,13 +2184,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2236,8 +2203,8 @@
       <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="E18" t="s">
-        <v>239</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2246,7 +2213,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2269,7 +2236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2289,7 +2256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2309,7 +2276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2329,7 +2296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2352,7 +2319,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2372,7 +2339,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -2392,7 +2359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2412,7 +2379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2426,7 +2393,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -2435,7 +2402,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -2449,13 +2416,13 @@
         <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2475,7 +2442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2495,7 +2462,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2515,7 +2482,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2538,7 +2505,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -2558,7 +2525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2578,7 +2545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2598,7 +2565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -2618,7 +2585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2632,13 +2599,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2652,13 +2619,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2672,13 +2639,13 @@
         <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2698,7 +2665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2718,7 +2685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2738,7 +2705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2755,7 +2722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2778,7 +2745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2801,7 +2768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2824,7 +2791,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2847,7 +2814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2867,7 +2834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2890,7 +2857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2910,7 +2877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2930,7 +2897,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2950,7 +2917,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2970,7 +2937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2990,7 +2957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3010,7 +2977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3030,7 +2997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3050,7 +3017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -3064,13 +3031,13 @@
         <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -3084,13 +3051,13 @@
         <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -3103,14 +3070,14 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
-      <c r="E60" t="s">
-        <v>242</v>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -3150,7 +3117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -3170,7 +3137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3187,7 +3154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -3207,7 +3174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -3227,7 +3194,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -3247,7 +3214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -3267,7 +3234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -3281,13 +3248,13 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3301,13 +3268,13 @@
         <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3327,7 +3294,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -3347,7 +3314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3367,7 +3334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -3387,7 +3354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3407,7 +3374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3427,7 +3394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3447,7 +3414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3467,7 +3434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -3481,13 +3448,13 @@
         <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3501,13 +3468,13 @@
         <v>44</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F80" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3521,13 +3488,13 @@
         <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3547,7 +3514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3567,7 +3534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3587,7 +3554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3604,7 +3571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -3624,7 +3591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -3644,7 +3611,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +3631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -3684,7 +3651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -3704,7 +3671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -3724,7 +3691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -3744,7 +3711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -3764,7 +3731,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -3784,7 +3751,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -3804,7 +3771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -3844,7 +3811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -3864,7 +3831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -3884,7 +3851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -3898,13 +3865,13 @@
         <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -3918,13 +3885,13 @@
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -3937,14 +3904,14 @@
       <c r="D102" t="s">
         <v>93</v>
       </c>
-      <c r="E102" t="s">
-        <v>241</v>
+      <c r="E102">
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -3964,7 +3931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -3984,7 +3951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -4004,7 +3971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -4021,7 +3988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -4041,7 +4008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -4061,7 +4028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>90</v>
       </c>
@@ -4081,7 +4048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>90</v>
       </c>
@@ -4101,7 +4068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -4115,13 +4082,13 @@
         <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F111" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -4135,13 +4102,13 @@
         <v>92</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>90</v>
       </c>
@@ -4161,7 +4128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -4181,7 +4148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -4201,7 +4168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -4221,7 +4188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -4241,7 +4208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -4261,7 +4228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -4281,7 +4248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -4301,7 +4268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -4315,13 +4282,13 @@
         <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>90</v>
       </c>
@@ -4335,13 +4302,13 @@
         <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F122" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -4355,13 +4322,13 @@
         <v>93</v>
       </c>
       <c r="E123" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F123" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -4421,7 +4388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>90</v>
       </c>
@@ -4438,7 +4405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -4458,7 +4425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -4498,7 +4465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -4538,7 +4505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -4558,7 +4525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -4578,7 +4545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -4598,7 +4565,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -4618,7 +4585,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -4638,7 +4605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -4658,7 +4625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -4678,7 +4645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -4698,7 +4665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -4718,7 +4685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -4732,13 +4699,13 @@
         <v>43</v>
       </c>
       <c r="E142" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F142" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -4752,13 +4719,13 @@
         <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F143" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -4771,14 +4738,14 @@
       <c r="D144" t="s">
         <v>93</v>
       </c>
-      <c r="E144" t="s">
-        <v>240</v>
+      <c r="E144">
+        <v>0</v>
       </c>
       <c r="F144" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -4798,7 +4765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -4818,7 +4785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -4838,7 +4805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -4855,7 +4822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -4875,7 +4842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -4895,7 +4862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -4915,7 +4882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -4935,7 +4902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -4949,13 +4916,13 @@
         <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F153" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -4969,13 +4936,13 @@
         <v>92</v>
       </c>
       <c r="E154" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F154" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -4995,7 +4962,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -5015,7 +4982,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -5035,7 +5002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -5055,7 +5022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -5075,7 +5042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -5095,7 +5062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -5115,7 +5082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -5135,7 +5102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -5149,13 +5116,13 @@
         <v>43</v>
       </c>
       <c r="E163" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F163" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -5169,13 +5136,13 @@
         <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F164" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -5189,13 +5156,13 @@
         <v>93</v>
       </c>
       <c r="E165" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F165" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -5215,7 +5182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -5235,7 +5202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -5255,7 +5222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -5272,7 +5239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -5292,7 +5259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -5312,7 +5279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -5332,7 +5299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -5352,7 +5319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -5372,7 +5339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -5392,7 +5359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -5412,7 +5379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -5432,7 +5399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -5452,7 +5419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -5472,7 +5439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -5492,7 +5459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -5512,7 +5479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -5532,7 +5499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -5552,7 +5519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -5566,13 +5533,13 @@
         <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F184" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -5586,13 +5553,13 @@
         <v>44</v>
       </c>
       <c r="E185" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F185" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -5605,14 +5572,14 @@
       <c r="D186" t="s">
         <v>93</v>
       </c>
-      <c r="E186" t="s">
-        <v>245</v>
+      <c r="E186">
+        <v>0</v>
       </c>
       <c r="F186" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -5632,7 +5599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -5652,7 +5619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +5639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -5689,7 +5656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -5709,7 +5676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -5729,7 +5696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -5749,7 +5716,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -5769,7 +5736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -5789,7 +5756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -5809,7 +5776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -5829,7 +5796,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -5849,7 +5816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -5869,7 +5836,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -5889,7 +5856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -5909,7 +5876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -5929,7 +5896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -5949,7 +5916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -5969,7 +5936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>90</v>
       </c>
@@ -5983,13 +5950,13 @@
         <v>43</v>
       </c>
       <c r="E205" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F205" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>90</v>
       </c>
@@ -6003,13 +5970,13 @@
         <v>44</v>
       </c>
       <c r="E206" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F206" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>90</v>
       </c>
@@ -6023,13 +5990,13 @@
         <v>93</v>
       </c>
       <c r="E207" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F207" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>90</v>
       </c>
@@ -6049,7 +6016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -6069,7 +6036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>90</v>
       </c>
@@ -6089,7 +6056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>90</v>
       </c>
@@ -6106,7 +6073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6126,7 +6093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -6146,7 +6113,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -6166,7 +6133,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +6153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -6206,7 +6173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -6226,7 +6193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -6246,7 +6213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -6266,7 +6233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -6286,7 +6253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -6306,7 +6273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -6326,7 +6293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>37</v>
       </c>
@@ -6346,7 +6313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -6366,7 +6333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -6386,7 +6353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -6400,13 +6367,13 @@
         <v>43</v>
       </c>
       <c r="E226" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F226" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -6420,13 +6387,13 @@
         <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F227" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -6439,14 +6406,14 @@
       <c r="D228" t="s">
         <v>93</v>
       </c>
-      <c r="E228" t="s">
-        <v>244</v>
+      <c r="E228">
+        <v>0</v>
       </c>
       <c r="F228" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>37</v>
       </c>
@@ -6466,7 +6433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -6486,7 +6453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>37</v>
       </c>
@@ -6506,7 +6473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>37</v>
       </c>
@@ -6523,7 +6490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>90</v>
       </c>
@@ -6543,7 +6510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>90</v>
       </c>
@@ -6563,7 +6530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>90</v>
       </c>
@@ -6583,7 +6550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>90</v>
       </c>
@@ -6603,7 +6570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>90</v>
       </c>
@@ -6623,7 +6590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>90</v>
       </c>
@@ -6643,7 +6610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>90</v>
       </c>
@@ -6663,7 +6630,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>90</v>
       </c>
@@ -6683,7 +6650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>90</v>
       </c>
@@ -6703,7 +6670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>90</v>
       </c>
@@ -6723,7 +6690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>90</v>
       </c>
@@ -6743,7 +6710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>90</v>
       </c>
@@ -6763,7 +6730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>90</v>
       </c>
@@ -6783,7 +6750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>90</v>
       </c>
@@ -6803,7 +6770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>90</v>
       </c>
@@ -6817,13 +6784,13 @@
         <v>43</v>
       </c>
       <c r="E247" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F247" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>90</v>
       </c>
@@ -6837,13 +6804,13 @@
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F248" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>90</v>
       </c>
@@ -6857,13 +6824,13 @@
         <v>93</v>
       </c>
       <c r="E249" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F249" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>90</v>
       </c>
@@ -6883,7 +6850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>90</v>
       </c>
@@ -6903,7 +6870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>90</v>
       </c>
@@ -6923,7 +6890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>90</v>
       </c>
@@ -6940,7 +6907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -6960,7 +6927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>37</v>
       </c>
@@ -6980,7 +6947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -7000,7 +6967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>37</v>
       </c>
@@ -7020,7 +6987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -7040,7 +7007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>37</v>
       </c>
@@ -7060,7 +7027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -7080,7 +7047,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>37</v>
       </c>
@@ -7100,7 +7067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>37</v>
       </c>
@@ -7120,7 +7087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -7140,7 +7107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -7160,7 +7127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>37</v>
       </c>
@@ -7180,7 +7147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>37</v>
       </c>
@@ -7200,7 +7167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>37</v>
       </c>
@@ -7220,7 +7187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -7234,13 +7201,13 @@
         <v>43</v>
       </c>
       <c r="E268" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F268" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>37</v>
       </c>
@@ -7254,13 +7221,13 @@
         <v>44</v>
       </c>
       <c r="E269" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F269" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -7273,14 +7240,14 @@
       <c r="D270" t="s">
         <v>93</v>
       </c>
-      <c r="E270" t="s">
-        <v>243</v>
+      <c r="E270">
+        <v>0</v>
       </c>
       <c r="F270" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -7300,7 +7267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>37</v>
       </c>
@@ -7320,7 +7287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>37</v>
       </c>
@@ -7340,7 +7307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>37</v>
       </c>
@@ -7357,7 +7324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -7377,7 +7344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -7397,7 +7364,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -7417,7 +7384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -7437,7 +7404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -7457,7 +7424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -7477,7 +7444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -7497,7 +7464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -7517,7 +7484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -7537,7 +7504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -7557,7 +7524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -7577,7 +7544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -7597,7 +7564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -7617,7 +7584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -7637,7 +7604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -7651,13 +7618,13 @@
         <v>43</v>
       </c>
       <c r="E289" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F289" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -7671,13 +7638,13 @@
         <v>44</v>
       </c>
       <c r="E290" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F290" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -7691,13 +7658,13 @@
         <v>93</v>
       </c>
       <c r="E291" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F291" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -7717,7 +7684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -7737,7 +7704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -7757,7 +7724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -7774,7 +7741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -7794,7 +7761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -7814,7 +7781,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -7834,7 +7801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>37</v>
       </c>
@@ -7854,7 +7821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>37</v>
       </c>
@@ -7874,7 +7841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>37</v>
       </c>
@@ -7894,7 +7861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>37</v>
       </c>
@@ -7914,7 +7881,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -7934,7 +7901,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>37</v>
       </c>
@@ -7954,7 +7921,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>37</v>
       </c>
@@ -7974,7 +7941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -7994,7 +7961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>37</v>
       </c>
@@ -8014,7 +7981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>37</v>
       </c>
@@ -8034,7 +8001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -8054,7 +8021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>37</v>
       </c>
@@ -8068,13 +8035,13 @@
         <v>43</v>
       </c>
       <c r="E310" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F310" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>37</v>
       </c>
@@ -8088,13 +8055,13 @@
         <v>44</v>
       </c>
       <c r="E311" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F311" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>37</v>
       </c>
@@ -8107,14 +8074,14 @@
       <c r="D312" t="s">
         <v>93</v>
       </c>
-      <c r="E312" t="s">
-        <v>248</v>
+      <c r="E312">
+        <v>0</v>
       </c>
       <c r="F312" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>37</v>
       </c>
@@ -8134,7 +8101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>37</v>
       </c>
@@ -8154,7 +8121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>37</v>
       </c>
@@ -8174,7 +8141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>37</v>
       </c>
@@ -8191,7 +8158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>90</v>
       </c>
@@ -8211,7 +8178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>90</v>
       </c>
@@ -8231,7 +8198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>90</v>
       </c>
@@ -8251,7 +8218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>90</v>
       </c>
@@ -8271,7 +8238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>90</v>
       </c>
@@ -8291,7 +8258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>90</v>
       </c>
@@ -8311,7 +8278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>90</v>
       </c>
@@ -8331,7 +8298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>90</v>
       </c>
@@ -8351,7 +8318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>90</v>
       </c>
@@ -8371,7 +8338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>90</v>
       </c>
@@ -8391,7 +8358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>90</v>
       </c>
@@ -8411,7 +8378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>90</v>
       </c>
@@ -8431,7 +8398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>90</v>
       </c>
@@ -8451,7 +8418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>90</v>
       </c>
@@ -8471,7 +8438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>90</v>
       </c>
@@ -8485,13 +8452,13 @@
         <v>43</v>
       </c>
       <c r="E331" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F331" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>90</v>
       </c>
@@ -8505,13 +8472,13 @@
         <v>44</v>
       </c>
       <c r="E332" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F332" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>90</v>
       </c>
@@ -8525,13 +8492,13 @@
         <v>93</v>
       </c>
       <c r="E333" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F333" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>90</v>
       </c>
@@ -8551,7 +8518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>90</v>
       </c>
@@ -8571,7 +8538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>90</v>
       </c>
@@ -8591,7 +8558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>90</v>
       </c>
@@ -8608,7 +8575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>37</v>
       </c>
@@ -8628,7 +8595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>37</v>
       </c>
@@ -8648,7 +8615,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>37</v>
       </c>
@@ -8668,7 +8635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>37</v>
       </c>
@@ -8708,7 +8675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>37</v>
       </c>
@@ -8728,7 +8695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>37</v>
       </c>
@@ -8748,7 +8715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -8768,7 +8735,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>37</v>
       </c>
@@ -8788,7 +8755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>37</v>
       </c>
@@ -8808,7 +8775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>37</v>
       </c>
@@ -8828,7 +8795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -8848,7 +8815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>37</v>
       </c>
@@ -8868,7 +8835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>37</v>
       </c>
@@ -8888,7 +8855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>37</v>
       </c>
@@ -8902,13 +8869,13 @@
         <v>43</v>
       </c>
       <c r="E352" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F352" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>37</v>
       </c>
@@ -8922,13 +8889,13 @@
         <v>44</v>
       </c>
       <c r="E353" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F353" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>37</v>
       </c>
@@ -8941,14 +8908,14 @@
       <c r="D354" t="s">
         <v>93</v>
       </c>
-      <c r="E354" t="s">
-        <v>247</v>
+      <c r="E354">
+        <v>0</v>
       </c>
       <c r="F354" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>37</v>
       </c>
@@ -8968,7 +8935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>37</v>
       </c>
@@ -8988,7 +8955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>37</v>
       </c>
@@ -9008,7 +8975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>37</v>
       </c>
@@ -9025,7 +8992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>90</v>
       </c>
@@ -9045,7 +9012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>90</v>
       </c>
@@ -9065,7 +9032,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>90</v>
       </c>
@@ -9085,7 +9052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>90</v>
       </c>
@@ -9105,7 +9072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>90</v>
       </c>
@@ -9125,7 +9092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>90</v>
       </c>
@@ -9145,7 +9112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>90</v>
       </c>
@@ -9165,7 +9132,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>90</v>
       </c>
@@ -9185,7 +9152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>90</v>
       </c>
@@ -9205,7 +9172,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>90</v>
       </c>
@@ -9225,7 +9192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>90</v>
       </c>
@@ -9245,7 +9212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>90</v>
       </c>
@@ -9265,7 +9232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>90</v>
       </c>
@@ -9285,7 +9252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>90</v>
       </c>
@@ -9305,7 +9272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>90</v>
       </c>
@@ -9319,13 +9286,13 @@
         <v>43</v>
       </c>
       <c r="E373" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F373" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>90</v>
       </c>
@@ -9339,13 +9306,13 @@
         <v>44</v>
       </c>
       <c r="E374" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F374" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>90</v>
       </c>
@@ -9359,13 +9326,13 @@
         <v>93</v>
       </c>
       <c r="E375" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F375" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>90</v>
       </c>
@@ -9385,7 +9352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>90</v>
       </c>
@@ -9405,7 +9372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>90</v>
       </c>
@@ -9425,7 +9392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>90</v>
       </c>
@@ -9442,7 +9409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>37</v>
       </c>
@@ -9462,7 +9429,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>37</v>
       </c>
@@ -9482,7 +9449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -9502,7 +9469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -9522,7 +9489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -9542,7 +9509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -9562,7 +9529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -9582,7 +9549,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -9602,7 +9569,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -9622,7 +9589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -9642,7 +9609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -9662,7 +9629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -9682,7 +9649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -9702,7 +9669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>37</v>
       </c>
@@ -9722,7 +9689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>37</v>
       </c>
@@ -9736,13 +9703,13 @@
         <v>43</v>
       </c>
       <c r="E394" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F394" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>37</v>
       </c>
@@ -9756,13 +9723,13 @@
         <v>44</v>
       </c>
       <c r="E395" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F395" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>37</v>
       </c>
@@ -9775,14 +9742,14 @@
       <c r="D396" t="s">
         <v>93</v>
       </c>
-      <c r="E396" t="s">
-        <v>246</v>
+      <c r="E396">
+        <v>0</v>
       </c>
       <c r="F396" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>37</v>
       </c>
@@ -9802,7 +9769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>37</v>
       </c>
@@ -9822,7 +9789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>37</v>
       </c>
@@ -9842,7 +9809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>37</v>
       </c>
@@ -9859,7 +9826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>90</v>
       </c>
@@ -9879,7 +9846,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>90</v>
       </c>
@@ -9899,7 +9866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>90</v>
       </c>
@@ -9919,7 +9886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>90</v>
       </c>
@@ -9939,7 +9906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>90</v>
       </c>
@@ -9959,7 +9926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>90</v>
       </c>
@@ -9979,7 +9946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -9999,7 +9966,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>90</v>
       </c>
@@ -10019,7 +9986,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>90</v>
       </c>
@@ -10039,7 +10006,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>90</v>
       </c>
@@ -10059,7 +10026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>90</v>
       </c>
@@ -10079,7 +10046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>90</v>
       </c>
@@ -10099,7 +10066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>90</v>
       </c>
@@ -10119,7 +10086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>90</v>
       </c>
@@ -10139,7 +10106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>90</v>
       </c>
@@ -10153,13 +10120,13 @@
         <v>43</v>
       </c>
       <c r="E415" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F415" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>90</v>
       </c>
@@ -10173,13 +10140,13 @@
         <v>44</v>
       </c>
       <c r="E416" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F416" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>90</v>
       </c>
@@ -10193,13 +10160,13 @@
         <v>93</v>
       </c>
       <c r="E417" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F417" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>90</v>
       </c>
@@ -10219,7 +10186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>90</v>
       </c>
@@ -10239,7 +10206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>90</v>
       </c>
@@ -10259,7 +10226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>90</v>
       </c>
@@ -10292,21 +10259,21 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -10329,7 +10296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10352,7 +10319,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -10375,7 +10342,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -10398,7 +10365,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -10421,7 +10388,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -10444,7 +10411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -10467,7 +10434,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -10490,7 +10457,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -10513,7 +10480,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -10536,7 +10503,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -10559,7 +10526,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -10582,7 +10549,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -10605,7 +10572,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -10628,7 +10595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -10651,7 +10618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -10665,7 +10632,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -10674,7 +10641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -10697,7 +10664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -10720,7 +10687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -10743,7 +10710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -10766,7 +10733,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -10786,7 +10753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -10806,7 +10773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -10826,7 +10793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -10846,7 +10813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -10866,7 +10833,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -10886,7 +10853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -10906,7 +10873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -10926,7 +10893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -10946,7 +10913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -10966,7 +10933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -10980,13 +10947,13 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -11006,7 +10973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -11026,7 +10993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -11046,7 +11013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -11066,7 +11033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11086,7 +11053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -11106,7 +11073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -11126,7 +11093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -11146,7 +11113,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -11166,7 +11133,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -11186,7 +11153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -11206,7 +11173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -11226,7 +11193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -11246,7 +11213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -11266,7 +11233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -11280,13 +11247,13 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -11306,7 +11273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -11326,7 +11293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -11346,7 +11313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11366,7 +11333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -11386,7 +11353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -11406,7 +11373,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11426,7 +11393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -11446,7 +11413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -11466,7 +11433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -11486,7 +11453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -11506,7 +11473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -11526,7 +11493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -11546,7 +11513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -11566,7 +11533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -11580,13 +11547,13 @@
         <v>14</v>
       </c>
       <c r="E61">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -11606,7 +11573,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -11626,7 +11593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -11646,7 +11613,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -11666,7 +11633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -11686,7 +11653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -11706,7 +11673,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -11726,7 +11693,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -11746,7 +11713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -11766,7 +11733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -11786,7 +11753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -11806,7 +11773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -11826,7 +11793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -11846,7 +11813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -11866,7 +11833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -11880,13 +11847,13 @@
         <v>14</v>
       </c>
       <c r="E76">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F76" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -11906,7 +11873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -11926,7 +11893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -11946,7 +11913,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -11966,7 +11933,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -11986,7 +11953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -12006,7 +11973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -12026,7 +11993,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -12046,7 +12013,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -12066,7 +12033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -12086,7 +12053,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -12106,7 +12073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -12126,7 +12093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -12146,7 +12113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -12166,7 +12133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -12180,13 +12147,13 @@
         <v>14</v>
       </c>
       <c r="E91">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -12206,7 +12173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -12226,7 +12193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -12246,7 +12213,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -12266,7 +12233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -12286,7 +12253,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -12306,7 +12273,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -12326,7 +12293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -12346,7 +12313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -12366,7 +12333,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -12386,7 +12353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -12406,7 +12373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -12426,7 +12393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -12446,7 +12413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -12466,7 +12433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -12480,13 +12447,13 @@
         <v>14</v>
       </c>
       <c r="E106">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -12506,7 +12473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -12526,7 +12493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -12546,7 +12513,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -12566,7 +12533,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -12586,7 +12553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -12606,7 +12573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -12626,7 +12593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -12646,7 +12613,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -12666,7 +12633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -12686,7 +12653,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -12706,7 +12673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -12726,7 +12693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>37</v>
       </c>
@@ -12746,7 +12713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -12766,7 +12733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -12780,13 +12747,13 @@
         <v>14</v>
       </c>
       <c r="E121">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -12806,7 +12773,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -12826,7 +12793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>37</v>
       </c>
@@ -12846,7 +12813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -12866,7 +12833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -12886,7 +12853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -12906,7 +12873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -12926,7 +12893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -12946,7 +12913,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -12966,7 +12933,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -12986,7 +12953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -13006,7 +12973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -13026,7 +12993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -13046,7 +13013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -13066,7 +13033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -13080,13 +13047,13 @@
         <v>14</v>
       </c>
       <c r="E136">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F136" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -13106,7 +13073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -13126,7 +13093,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -13146,7 +13113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -13166,7 +13133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -13186,7 +13153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -13206,7 +13173,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -13226,7 +13193,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -13246,7 +13213,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -13266,7 +13233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -13286,7 +13253,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -13306,7 +13273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -13326,7 +13293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -13346,7 +13313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -13366,7 +13333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -13380,13 +13347,13 @@
         <v>14</v>
       </c>
       <c r="E151">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F151" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -13406,7 +13373,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -13426,7 +13393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -13446,7 +13413,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -13466,7 +13433,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -13480,13 +13447,13 @@
         <v>4</v>
       </c>
       <c r="E156">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F156" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -13506,7 +13473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -13526,7 +13493,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -13546,7 +13513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -13566,7 +13533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -13586,7 +13553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -13606,7 +13573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -13626,7 +13593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -13646,7 +13613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -13666,7 +13633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -13680,13 +13647,13 @@
         <v>14</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F166" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -13709,7 +13676,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -13729,7 +13696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -13749,7 +13716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -13769,7 +13736,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -13783,13 +13750,13 @@
         <v>4</v>
       </c>
       <c r="E171">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F171" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -13809,7 +13776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -13829,7 +13796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -13849,7 +13816,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -13869,7 +13836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -13889,7 +13856,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -13912,7 +13879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -13932,7 +13899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -13952,7 +13919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -13972,7 +13939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -13986,13 +13953,13 @@
         <v>14</v>
       </c>
       <c r="E181">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F181" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -14012,7 +13979,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -14032,7 +13999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -14052,7 +14019,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -14072,7 +14039,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -14086,13 +14053,13 @@
         <v>4</v>
       </c>
       <c r="E186">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -14112,7 +14079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -14132,7 +14099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -14152,7 +14119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -14172,7 +14139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -14192,7 +14159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -14212,7 +14179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -14232,7 +14199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -14252,7 +14219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -14272,7 +14239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -14286,13 +14253,13 @@
         <v>14</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F196" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -14312,7 +14279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -14332,7 +14299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -14352,7 +14319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -14372,7 +14339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -14386,13 +14353,13 @@
         <v>4</v>
       </c>
       <c r="E201">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F201" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -14412,7 +14379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -14432,7 +14399,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -14452,7 +14419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>90</v>
       </c>
@@ -14472,7 +14439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>90</v>
       </c>
@@ -14492,7 +14459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>90</v>
       </c>
@@ -14512,7 +14479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>90</v>
       </c>
@@ -14532,7 +14499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -14552,7 +14519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>90</v>
       </c>
@@ -14572,7 +14539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>90</v>
       </c>
@@ -14586,13 +14553,13 @@
         <v>14</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F211" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>90</v>
       </c>
@@ -14612,7 +14579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>90</v>
       </c>
@@ -14632,7 +14599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>90</v>
       </c>
@@ -14652,7 +14619,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>90</v>
       </c>
@@ -14672,7 +14639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>90</v>
       </c>
@@ -14686,13 +14653,13 @@
         <v>4</v>
       </c>
       <c r="E216">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F216" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>90</v>
       </c>
@@ -14712,7 +14679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>90</v>
       </c>
@@ -14732,7 +14699,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>90</v>
       </c>
@@ -14752,7 +14719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>90</v>
       </c>
@@ -14772,7 +14739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>90</v>
       </c>
@@ -14792,7 +14759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>90</v>
       </c>
@@ -14812,7 +14779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>90</v>
       </c>
@@ -14832,7 +14799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>90</v>
       </c>
@@ -14852,7 +14819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>90</v>
       </c>
@@ -14872,7 +14839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>90</v>
       </c>
@@ -14886,13 +14853,13 @@
         <v>14</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F226" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>90</v>
       </c>
@@ -14912,7 +14879,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>90</v>
       </c>
@@ -14932,7 +14899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>90</v>
       </c>
@@ -14952,7 +14919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>90</v>
       </c>
@@ -14972,7 +14939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>90</v>
       </c>
@@ -14986,13 +14953,13 @@
         <v>4</v>
       </c>
       <c r="E231">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F231" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>90</v>
       </c>
@@ -15012,7 +14979,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>90</v>
       </c>
@@ -15032,7 +14999,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>90</v>
       </c>
@@ -15052,7 +15019,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>90</v>
       </c>
@@ -15072,7 +15039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>90</v>
       </c>
@@ -15092,7 +15059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>90</v>
       </c>
@@ -15112,7 +15079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>90</v>
       </c>
@@ -15132,7 +15099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>90</v>
       </c>
@@ -15152,7 +15119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>90</v>
       </c>
@@ -15172,7 +15139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>90</v>
       </c>
@@ -15186,13 +15153,13 @@
         <v>14</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F241" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>90</v>
       </c>
@@ -15212,7 +15179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>90</v>
       </c>
@@ -15232,7 +15199,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>90</v>
       </c>
@@ -15252,7 +15219,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>90</v>
       </c>
@@ -15272,7 +15239,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>90</v>
       </c>
@@ -15286,13 +15253,13 @@
         <v>4</v>
       </c>
       <c r="E246">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F246" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>90</v>
       </c>
@@ -15312,7 +15279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>90</v>
       </c>
@@ -15332,7 +15299,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>90</v>
       </c>
@@ -15352,7 +15319,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>90</v>
       </c>
@@ -15372,7 +15339,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>90</v>
       </c>
@@ -15392,7 +15359,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>90</v>
       </c>
@@ -15412,7 +15379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>90</v>
       </c>
@@ -15432,7 +15399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>90</v>
       </c>
@@ -15452,7 +15419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>90</v>
       </c>
@@ -15472,7 +15439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>90</v>
       </c>
@@ -15486,13 +15453,13 @@
         <v>14</v>
       </c>
       <c r="E256">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F256" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>90</v>
       </c>
@@ -15512,7 +15479,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>90</v>
       </c>
@@ -15532,7 +15499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>90</v>
       </c>
@@ -15552,7 +15519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>90</v>
       </c>
@@ -15572,7 +15539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>90</v>
       </c>
@@ -15586,13 +15553,13 @@
         <v>4</v>
       </c>
       <c r="E261">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F261" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>90</v>
       </c>
@@ -15612,7 +15579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -15632,7 +15599,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -15652,7 +15619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -15672,7 +15639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -15692,7 +15659,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -15712,7 +15679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -15732,7 +15699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -15752,7 +15719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -15772,7 +15739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -15786,13 +15753,13 @@
         <v>14</v>
       </c>
       <c r="E271">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F271" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -15812,7 +15779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -15832,7 +15799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -15852,7 +15819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -15872,7 +15839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -15886,13 +15853,13 @@
         <v>4</v>
       </c>
       <c r="E276">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F276" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -15912,7 +15879,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -15932,7 +15899,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -15952,7 +15919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -15972,7 +15939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -15992,7 +15959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -16012,7 +15979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -16032,7 +15999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -16052,7 +16019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -16072,7 +16039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -16086,13 +16053,13 @@
         <v>14</v>
       </c>
       <c r="E286">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F286" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16112,7 +16079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16132,7 +16099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -16152,7 +16119,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -16172,7 +16139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -16186,13 +16153,13 @@
         <v>4</v>
       </c>
       <c r="E291">
-        <v>275000</v>
+        <v>325000</v>
       </c>
       <c r="F291" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16212,7 +16179,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16232,7 +16199,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16252,7 +16219,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16272,7 +16239,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -16292,7 +16259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -16312,7 +16279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -16332,7 +16299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -16352,7 +16319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -16372,7 +16339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -16386,7 +16353,7 @@
         <v>14</v>
       </c>
       <c r="E301">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F301" t="s">
         <v>47</v>
@@ -16410,14 +16377,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -16434,7 +16401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -16451,7 +16418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -16468,7 +16435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -16482,7 +16449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -16496,7 +16463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -16513,7 +16480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -16530,7 +16497,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -16547,7 +16514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16561,7 +16528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -16575,7 +16542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -16589,7 +16556,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -16603,7 +16570,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -16617,7 +16584,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -16631,7 +16598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -16645,7 +16612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -16659,7 +16626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -16686,16 +16653,16 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16712,7 +16679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16729,7 +16696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -16743,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -16757,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -16771,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -16785,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -16802,7 +16769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -16816,7 +16783,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -16830,7 +16797,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -16847,7 +16814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -16864,7 +16831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -16878,7 +16845,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -16892,7 +16859,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -16906,7 +16873,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -16923,7 +16890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -16937,7 +16904,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -16951,7 +16918,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -16965,7 +16932,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -16979,7 +16946,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -16993,7 +16960,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -17007,7 +16974,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -17024,7 +16991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -17041,7 +17008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -17058,7 +17025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -17072,7 +17039,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -17086,7 +17053,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -17113,15 +17080,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -17135,7 +17102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -17149,7 +17116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -17160,7 +17127,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -17171,7 +17138,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -17185,7 +17152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -17196,7 +17163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -17207,7 +17174,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -17218,7 +17185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -17229,7 +17196,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -17240,7 +17207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -17251,7 +17218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -17262,7 +17229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -17273,7 +17240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -17284,7 +17251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -17295,7 +17262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -17306,7 +17273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -17317,7 +17284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -17328,7 +17295,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -17339,7 +17306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -17350,7 +17317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -17361,7 +17328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -17372,7 +17339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -17383,7 +17350,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -17394,7 +17361,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -17405,7 +17372,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -17416,7 +17383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -17427,7 +17394,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -17438,7 +17405,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -17449,7 +17416,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -17460,7 +17427,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -17471,7 +17438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -17482,7 +17449,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -17493,7 +17460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -17504,7 +17471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -17515,7 +17482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -17526,7 +17493,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -17537,7 +17504,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -17548,7 +17515,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -17559,7 +17526,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -17570,7 +17537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -17581,7 +17548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -17592,7 +17559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>118</v>
       </c>
